--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -153,7 +153,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -195,13 +195,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -222,7 +222,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -291,7 +291,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -303,7 +303,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -405,7 +405,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -423,7 +423,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -441,7 +441,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>
@@ -1407,7 +1407,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="95" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="186">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="185">
   <si>
     <t>Tableau 26 : Origine et destination géographiques de la valeur ajoutée</t>
   </si>
@@ -1379,11 +1376,9 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1407,86 +1402,86 @@
       <c r="W1" s="4"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="95" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="12">
         <v>20120.22</v>
@@ -1557,10 +1552,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="17">
         <v>1396.76</v>
@@ -1631,10 +1626,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="23">
         <v>442.7097</v>
@@ -1705,10 +1700,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="23">
         <v>152.7747</v>
@@ -1779,10 +1774,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="23">
         <v>836.29110000000003</v>
@@ -1853,10 +1848,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="23">
         <v>844.02610000000004</v>
@@ -1927,10 +1922,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="C9" s="23">
         <v>1276.78</v>
@@ -2001,10 +1996,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="C10" s="23">
         <v>83489.73</v>
@@ -2075,10 +2070,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="17">
         <v>3724.77</v>
@@ -2149,10 +2144,10 @@
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>45</v>
       </c>
       <c r="C12" s="28">
         <v>130.5376</v>
@@ -2223,10 +2218,10 @@
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="C13" s="34">
         <v>112414.5992</v>
@@ -2297,10 +2292,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="C14" s="23">
         <v>150.26679999999999</v>
@@ -2371,10 +2366,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="C15" s="23">
         <v>2480.0619999999999</v>
@@ -2445,10 +2440,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="23">
         <v>155.14160000000001</v>
@@ -2519,10 +2514,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>55</v>
       </c>
       <c r="C17" s="12">
         <v>851.64859999999999</v>
@@ -2593,10 +2588,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>57</v>
       </c>
       <c r="C18" s="12">
         <v>4685.6689999999999</v>
@@ -2667,10 +2662,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="C19" s="17">
         <v>2102.402</v>
@@ -2741,84 +2736,84 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="C21" s="12">
         <v>2665.6219999999998</v>
@@ -2889,10 +2884,10 @@
     </row>
     <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="C22" s="23">
         <v>117.5177</v>
@@ -2963,10 +2958,10 @@
     </row>
     <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="34">
         <v>13208.3297</v>
@@ -3037,84 +3032,84 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="C24" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X24" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="C25" s="23">
         <v>136.4667</v>
@@ -3185,10 +3180,10 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="C26" s="23">
         <v>238.09520000000001</v>
@@ -3259,10 +3254,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="C27" s="23">
         <v>3702.6390000000001</v>
@@ -3333,10 +3328,10 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="C28" s="23">
         <v>6016.9769999999999</v>
@@ -3407,10 +3402,10 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="C29" s="23">
         <v>1548.7919999999999</v>
@@ -3481,10 +3476,10 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="C30" s="23">
         <v>2001.1120000000001</v>
@@ -3555,10 +3550,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="C31" s="23">
         <v>153.9478</v>
@@ -3629,10 +3624,10 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="C32" s="23">
         <v>226.77180000000001</v>
@@ -3703,10 +3698,10 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="C33" s="23">
         <v>26.36684</v>
@@ -3777,10 +3772,10 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="C34" s="17">
         <v>577.26189999999997</v>
@@ -3851,10 +3846,10 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="C35" s="23">
         <v>145.05070000000001</v>
@@ -3925,10 +3920,10 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="C36" s="23">
         <v>1559.5350000000001</v>
@@ -3999,10 +3994,10 @@
     </row>
     <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>95</v>
       </c>
       <c r="C37" s="23">
         <v>950.39499999999998</v>
@@ -4073,10 +4068,10 @@
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="34">
         <v>17283.410940000002</v>
@@ -4147,10 +4142,10 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>97</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>98</v>
       </c>
       <c r="C39" s="12">
         <v>45638.94</v>
@@ -4221,10 +4216,10 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="C40" s="23">
         <v>22311.279999999999</v>
@@ -4295,10 +4290,10 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>101</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>102</v>
       </c>
       <c r="C41" s="12">
         <v>10000.99</v>
@@ -4369,10 +4364,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>104</v>
       </c>
       <c r="C42" s="12">
         <v>1343.979</v>
@@ -4443,10 +4438,10 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="C43" s="23">
         <v>17582.5</v>
@@ -4517,10 +4512,10 @@
     </row>
     <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="C44" s="23">
         <v>7694.8069999999998</v>
@@ -4591,10 +4586,10 @@
     </row>
     <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="34">
         <v>104572.496</v>
@@ -4665,10 +4660,10 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C46" s="23">
         <v>773.04600000000005</v>
@@ -4739,10 +4734,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="C47" s="23">
         <v>285.23669999999998</v>
@@ -4813,10 +4808,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="C48" s="23">
         <v>154.7244</v>
@@ -4887,10 +4882,10 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="C49" s="23">
         <v>6302.4369999999999</v>
@@ -4961,10 +4956,10 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="C50" s="23">
         <v>76.805120000000002</v>
@@ -5035,10 +5030,10 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="C51" s="17">
         <v>4361.2150000000001</v>
@@ -5109,10 +5104,10 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="C52" s="23">
         <v>1056.7260000000001</v>
@@ -5183,84 +5178,84 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>125</v>
-      </c>
       <c r="C53" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S53" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W53" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X53" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="C54" s="23">
         <v>381.05099999999999</v>
@@ -5331,10 +5326,10 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="C55" s="23">
         <v>550.95360000000005</v>
@@ -5405,10 +5400,10 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="C56" s="23">
         <v>395.24790000000002</v>
@@ -5479,10 +5474,10 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>132</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>133</v>
       </c>
       <c r="C57" s="12">
         <v>29255.82</v>
@@ -5553,10 +5548,10 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="C58" s="23">
         <v>1706.5160000000001</v>
@@ -5627,10 +5622,10 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>137</v>
       </c>
       <c r="C59" s="23">
         <v>303.4794</v>
@@ -5701,10 +5696,10 @@
     </row>
     <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="C60" s="17">
         <v>584.34010000000001</v>
@@ -5776,7 +5771,7 @@
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="32"/>
       <c r="B61" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="34">
         <v>46187.59822</v>
@@ -5848,7 +5843,7 @@
     <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="40"/>
       <c r="B62" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="42">
         <v>293666.43406</v>
@@ -5920,7 +5915,7 @@
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="40"/>
       <c r="B63" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="42">
         <v>14242793.2495548</v>
@@ -5992,7 +5987,7 @@
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="46"/>
       <c r="B64" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="48">
         <v>772705.03419999999</v>
@@ -6064,7 +6059,7 @@
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="46"/>
       <c r="B65" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="53">
         <v>3303798.6708999998</v>
@@ -6136,7 +6131,7 @@
     <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="46"/>
       <c r="B66" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="58">
         <v>14536459.6836148</v>
@@ -6208,7 +6203,7 @@
     <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="46"/>
       <c r="B67" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="53">
         <v>62540.668239999999</v>
@@ -6280,7 +6275,7 @@
     <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="46"/>
       <c r="B68" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="53">
         <v>106138.14846</v>
@@ -6352,7 +6347,7 @@
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="46"/>
       <c r="B69" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="53">
         <v>9408.3834999999999</v>
@@ -6424,7 +6419,7 @@
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="46"/>
       <c r="B70" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="53">
         <v>33482.497499999998</v>
@@ -6496,7 +6491,7 @@
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="46"/>
       <c r="B71" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="53">
         <v>46187.59822</v>
@@ -6568,7 +6563,7 @@
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="46"/>
       <c r="B72" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="53">
         <v>11793.252339999999</v>
@@ -6640,7 +6635,7 @@
     <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="46"/>
       <c r="B73" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="53">
         <v>119853.212</v>
@@ -6712,7 +6707,7 @@
     <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="46"/>
       <c r="B74" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="53">
         <v>82261.216</v>
@@ -6784,7 +6779,7 @@
     <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="46"/>
       <c r="B75" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="58">
         <v>21236.4882</v>
@@ -6856,7 +6851,7 @@
     <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="46"/>
       <c r="B76" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="53">
         <v>989383.77099999995</v>
@@ -6928,7 +6923,7 @@
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="46"/>
       <c r="B77" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="53">
         <v>448368.68969999999</v>
@@ -7000,7 +6995,7 @@
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="46"/>
       <c r="B78" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="53">
         <v>4813890.0379999997</v>
@@ -7072,7 +7067,7 @@
     <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="46"/>
       <c r="B79" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="58">
         <v>9610703.6919999998</v>
@@ -7144,7 +7139,7 @@
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="46"/>
       <c r="B80" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="53">
         <v>114562.88860000001</v>
@@ -7216,7 +7211,7 @@
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="46"/>
       <c r="B81" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="53">
         <v>800539.19713475497</v>
@@ -7288,7 +7283,7 @@
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="46"/>
       <c r="B82" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="53">
         <v>179103.54545999999</v>
@@ -7360,7 +7355,7 @@
     <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="46"/>
       <c r="B83" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="58">
         <v>13442254.05242</v>
@@ -7432,7 +7427,7 @@
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="46"/>
       <c r="B84" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="53">
         <v>15916.16446</v>
@@ -7504,7 +7499,7 @@
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="46"/>
       <c r="B85" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="53">
         <v>17639.2019</v>
@@ -7576,7 +7571,7 @@
     <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="46"/>
       <c r="B86" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" s="53">
         <v>176692.50380000001</v>
@@ -7648,7 +7643,7 @@
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="46"/>
       <c r="B87" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="53">
         <v>880107.01260000002</v>
@@ -7720,7 +7715,7 @@
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="46"/>
       <c r="B88" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="53">
         <v>100830.99400000001</v>
@@ -7792,7 +7787,7 @@
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="46"/>
       <c r="B89" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" s="53">
         <v>3640373.9008347499</v>
@@ -7864,7 +7859,7 @@
     <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="46"/>
       <c r="B90" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" s="58">
         <v>9668364.81602001</v>
@@ -7936,7 +7931,7 @@
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="46"/>
       <c r="B91" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" s="53">
         <v>45550.989560000002</v>
@@ -8008,7 +8003,7 @@
     <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="46"/>
       <c r="B92" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" s="53">
         <v>32669.987300000001</v>
@@ -8080,7 +8075,7 @@
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="46"/>
       <c r="B93" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="53">
         <v>2500.1259</v>
@@ -8152,7 +8147,7 @@
     <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="46"/>
       <c r="B94" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" s="53">
         <v>166988.8622</v>
@@ -8224,7 +8219,7 @@
     <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="46"/>
       <c r="B95" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C95" s="53">
         <v>14456.582</v>
@@ -8296,7 +8291,7 @@
     <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="46"/>
       <c r="B96" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" s="58">
         <v>83724.513399999996</v>
@@ -8368,7 +8363,7 @@
     <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="46"/>
       <c r="B97" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="53">
         <v>101278.87325999999</v>
@@ -8440,7 +8435,7 @@
     <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="46"/>
       <c r="B98" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="53">
         <v>187787.40330000001</v>
@@ -8512,7 +8507,7 @@
     <row r="99" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="46"/>
       <c r="B99" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99" s="58">
         <v>45645.026940000003</v>
@@ -8609,7 +8604,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
@@ -8637,7 +8632,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
@@ -8665,7 +8660,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
@@ -8693,7 +8688,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
@@ -8721,7 +8716,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
@@ -8799,7 +8794,7 @@
     </row>
     <row r="108" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
@@ -8851,7 +8846,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -8878,7 +8873,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
@@ -8930,7 +8925,7 @@
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -8957,7 +8952,7 @@
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>
@@ -9009,7 +9004,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="186">
   <si>
     <t>Tableau 26 : Origine et destination géographiques de la valeur ajoutée</t>
   </si>
@@ -531,19 +531,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -558,7 +561,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM) (mise à jour 01/09/2021).</t>
@@ -8006,10 +8009,10 @@
         <v>168</v>
       </c>
       <c r="C92" s="53">
-        <v>32669.987300000001</v>
+        <v>32517.488499999999</v>
       </c>
       <c r="D92" s="54">
-        <v>3352.4368723576699</v>
+        <v>3314.37158141906</v>
       </c>
       <c r="E92" s="54">
         <v>859.10007727000004</v>
@@ -8018,13 +8021,13 @@
         <v>0</v>
       </c>
       <c r="G92" s="54">
-        <v>2415.7736327409998</v>
+        <v>2410.6407925509998</v>
       </c>
       <c r="H92" s="53">
-        <v>936.66323961665296</v>
+        <v>903.73078886804603</v>
       </c>
       <c r="I92" s="54">
-        <v>14879.832300554101</v>
+        <v>14826.4431417994</v>
       </c>
       <c r="J92" s="54">
         <v>2073.20599954</v>
@@ -8033,43 +8036,43 @@
         <v>0</v>
       </c>
       <c r="L92" s="54">
-        <v>5823.4229982949901</v>
+        <v>5821.7194244349903</v>
       </c>
       <c r="M92" s="53">
-        <v>9056.4093022590805</v>
+        <v>9004.7237173643898</v>
       </c>
       <c r="N92" s="55">
-        <v>6.4747505780054802</v>
+        <v>6.4693835939235003</v>
       </c>
       <c r="O92" s="56">
-        <v>0.64266218920868001</v>
+        <v>0.64079810285893002</v>
       </c>
       <c r="P92" s="56">
-        <v>0.16837657149085999</v>
+        <v>0.16846727682137</v>
       </c>
       <c r="Q92" s="56">
         <v>0</v>
       </c>
       <c r="R92" s="56">
-        <v>0.46349040479636</v>
+        <v>0.46344204697379998</v>
       </c>
       <c r="S92" s="55">
-        <v>0.17917178441230999</v>
+        <v>0.17735605588511999</v>
       </c>
       <c r="T92" s="56">
-        <v>2.9573708675804502</v>
+        <v>2.95586393404067</v>
       </c>
       <c r="U92" s="56">
-        <v>0.47558336725028</v>
+        <v>0.47583956647164999</v>
       </c>
       <c r="V92" s="56">
         <v>0</v>
       </c>
       <c r="W92" s="56">
-        <v>1.2161786366016101</v>
+        <v>1.21673487893842</v>
       </c>
       <c r="X92" s="55">
-        <v>1.7411922309788499</v>
+        <v>1.73912905510226</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
@@ -8291,7 +8294,7 @@
     <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="46"/>
       <c r="B96" s="57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C96" s="58">
         <v>83724.513399999996</v>
@@ -8363,7 +8366,7 @@
     <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="46"/>
       <c r="B97" s="52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C97" s="53">
         <v>101278.87325999999</v>
@@ -8435,7 +8438,7 @@
     <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="46"/>
       <c r="B98" s="52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" s="53">
         <v>187787.40330000001</v>
@@ -8507,7 +8510,7 @@
     <row r="99" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="46"/>
       <c r="B99" s="57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C99" s="58">
         <v>45645.026940000003</v>
@@ -8604,7 +8607,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
@@ -8632,7 +8635,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
@@ -8688,7 +8691,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
@@ -8716,7 +8719,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
@@ -8794,7 +8797,7 @@
     </row>
     <row r="108" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
@@ -8846,7 +8849,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -8873,7 +8876,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
@@ -8925,7 +8928,7 @@
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -8952,7 +8955,7 @@
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1594,37 +1594,37 @@
         <v>360.69631540260002</v>
       </c>
       <c r="N4" s="19">
-        <v>8.4182870438440691</v>
+        <v>8.3658458798705801</v>
       </c>
       <c r="O4" s="20">
-        <v>0.80123674889589003</v>
+        <v>0.79624549740830997</v>
       </c>
       <c r="P4" s="20">
-        <v>0.31530066108234001</v>
+        <v>0.31333651640747001</v>
       </c>
       <c r="Q4" s="20">
-        <v>0.31809923386934003</v>
+        <v>0.31611765566984001</v>
       </c>
       <c r="R4" s="20">
-        <v>0.34448906946303998</v>
+        <v>0.34234309752306002</v>
       </c>
       <c r="S4" s="19">
-        <v>0.45674767943285</v>
+        <v>0.45390239988525</v>
       </c>
       <c r="T4" s="20">
-        <v>2.2842624877034599</v>
+        <v>2.2700328251780202</v>
       </c>
       <c r="U4" s="20">
-        <v>7.0878919045170005E-2</v>
+        <v>7.0437383493280006E-2</v>
       </c>
       <c r="V4" s="20">
-        <v>8.3179175280109999E-2</v>
+        <v>8.2661016093179995E-2</v>
       </c>
       <c r="W4" s="20">
-        <v>0.11034204416556</v>
+        <v>0.10965467567822999</v>
       </c>
       <c r="X4" s="19">
-        <v>2.1739204435379</v>
+        <v>2.1603781494997998</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -1668,37 +1668,37 @@
         <v>101.6860708249</v>
       </c>
       <c r="N5" s="25">
-        <v>9.9015639875373793</v>
+        <v>9.8485270388475499</v>
       </c>
       <c r="O5" s="26">
-        <v>4.0850647059987901</v>
+        <v>4.0631833782126598</v>
       </c>
       <c r="P5" s="26">
-        <v>2.0180343576575899</v>
+        <v>2.00722491534968</v>
       </c>
       <c r="Q5" s="26">
-        <v>2.04265946758506</v>
+        <v>2.0317181228127099</v>
       </c>
       <c r="R5" s="26">
-        <v>2.1265648977928699</v>
+        <v>2.1151741201832102</v>
       </c>
       <c r="S5" s="25">
-        <v>1.95849980820592</v>
+        <v>1.9480092580294399</v>
       </c>
       <c r="T5" s="26">
-        <v>2.4037245207900599</v>
+        <v>2.3908491594598602</v>
       </c>
       <c r="U5" s="26">
-        <v>2.2760920002790001E-2</v>
+        <v>2.2639002925059999E-2</v>
       </c>
       <c r="V5" s="26">
-        <v>4.1266338786790001E-2</v>
+        <v>4.1045298888889997E-2</v>
       </c>
       <c r="W5" s="26">
-        <v>0.12943250298695</v>
+        <v>0.12873920796523999</v>
       </c>
       <c r="X5" s="25">
-        <v>2.2742920178030999</v>
+        <v>2.2621099514946099</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -1742,37 +1742,37 @@
         <v>39.963386739050001</v>
       </c>
       <c r="N6" s="25">
-        <v>6.8585396933799396</v>
+        <v>6.6462077857913204</v>
       </c>
       <c r="O6" s="26">
-        <v>6.42816243878279</v>
+        <v>6.2291544787889599</v>
       </c>
       <c r="P6" s="26">
-        <v>1.548498117176E-2</v>
+        <v>1.5005585303519999E-2</v>
       </c>
       <c r="Q6" s="26">
-        <v>0.14820751386652001</v>
+        <v>0.14361919251166</v>
       </c>
       <c r="R6" s="26">
-        <v>0.86334718242153996</v>
+        <v>0.83661902127496002</v>
       </c>
       <c r="S6" s="25">
-        <v>5.5648152563612596</v>
+        <v>5.3925354575139997</v>
       </c>
       <c r="T6" s="26">
-        <v>1.89530431707685</v>
+        <v>1.8366280391668</v>
       </c>
       <c r="U6" s="26">
-        <v>1.1478207905409999E-2</v>
+        <v>1.112285678269E-2</v>
       </c>
       <c r="V6" s="26">
-        <v>2.4497556889210001E-2</v>
+        <v>2.3739142821770001E-2</v>
       </c>
       <c r="W6" s="26">
-        <v>0.10122143403622</v>
+        <v>9.8087743609589995E-2</v>
       </c>
       <c r="X6" s="25">
-        <v>1.7940828830406299</v>
+        <v>1.73854029555721</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -1964,37 +1964,37 @@
         <v>294.63096039991001</v>
       </c>
       <c r="N9" s="25">
-        <v>10.1630150302123</v>
+        <v>10.2191214847554</v>
       </c>
       <c r="O9" s="26">
-        <v>3.3097443590911899</v>
+        <v>3.32801630111633</v>
       </c>
       <c r="P9" s="26">
-        <v>1.9517717830416601</v>
+        <v>1.9625468330143601</v>
       </c>
       <c r="Q9" s="26">
-        <v>1.9576408095993501</v>
+        <v>1.9684482604167499</v>
       </c>
       <c r="R9" s="26">
-        <v>2.0238188879140702</v>
+        <v>2.0349916847761</v>
       </c>
       <c r="S9" s="25">
-        <v>1.28592547117711</v>
+        <v>1.2930246163402299</v>
       </c>
       <c r="T9" s="26">
-        <v>2.6878161863994698</v>
+        <v>2.7026546803143399</v>
       </c>
       <c r="U9" s="26">
-        <v>0.30657096057970001</v>
+        <v>0.30826343172265003</v>
       </c>
       <c r="V9" s="26">
-        <v>0.30862884058128998</v>
+        <v>0.31033267256060998</v>
       </c>
       <c r="W9" s="26">
-        <v>0.34258922567784</v>
+        <v>0.34448054107590997</v>
       </c>
       <c r="X9" s="25">
-        <v>2.3452269607216301</v>
+        <v>2.3581741392384301</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -2038,37 +2038,37 @@
         <v>33562.019872019999</v>
       </c>
       <c r="N10" s="25">
-        <v>21.526342427366998</v>
+        <v>21.5263382043555</v>
       </c>
       <c r="O10" s="26">
-        <v>5.7720652146347202</v>
+        <v>5.77206408227803</v>
       </c>
       <c r="P10" s="26">
-        <v>1.7249904508680001E-2</v>
+        <v>1.7249901124610001E-2</v>
       </c>
       <c r="Q10" s="26">
-        <v>7.9477767512190003E-2</v>
+        <v>7.9477751920339998E-2</v>
       </c>
       <c r="R10" s="26">
-        <v>0.19792192520919999</v>
+        <v>0.19792188638111999</v>
       </c>
       <c r="S10" s="25">
-        <v>5.5741432894255301</v>
+        <v>5.5741421958969202</v>
       </c>
       <c r="T10" s="26">
-        <v>8.8320544018148208</v>
+        <v>8.8320526691531995</v>
       </c>
       <c r="U10" s="26">
-        <v>0.10641884529275</v>
+        <v>0.10641882441563</v>
       </c>
       <c r="V10" s="26">
-        <v>0.13116863449523999</v>
+        <v>0.13116860876274</v>
       </c>
       <c r="W10" s="26">
-        <v>0.17868431283263</v>
+        <v>0.17868427777856</v>
       </c>
       <c r="X10" s="25">
-        <v>8.6533700889821894</v>
+        <v>8.6533683913746398</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -2186,37 +2186,37 @@
         <v>1055.0708172679999</v>
       </c>
       <c r="N12" s="30">
-        <v>0.66644690089169001</v>
+        <v>0.56769006949148004</v>
       </c>
       <c r="O12" s="31">
-        <v>7.8113759748679998E-2</v>
+        <v>6.6538542891620006E-2</v>
       </c>
       <c r="P12" s="31">
-        <v>3.6230978437600002E-2</v>
+        <v>3.086212365826E-2</v>
       </c>
       <c r="Q12" s="31">
-        <v>3.6552953841249999E-2</v>
+        <v>3.1136387427859999E-2</v>
       </c>
       <c r="R12" s="31">
-        <v>3.9748737147299998E-2</v>
+        <v>3.3858606474360002E-2</v>
       </c>
       <c r="S12" s="30">
-        <v>3.836502260138E-2</v>
+        <v>3.2679936417259997E-2</v>
       </c>
       <c r="T12" s="31">
-        <v>5.5203236781484701</v>
+        <v>4.7022995054378196</v>
       </c>
       <c r="U12" s="31">
-        <v>3.4712779379709999E-2</v>
+        <v>2.9568897555000001E-2</v>
       </c>
       <c r="V12" s="31">
-        <v>5.9479705967169998E-2</v>
+        <v>5.0665759520609997E-2</v>
       </c>
       <c r="W12" s="31">
-        <v>0.13376320523092999</v>
+        <v>0.11394162561391</v>
       </c>
       <c r="X12" s="30">
-        <v>5.38656047291754</v>
+        <v>4.58835787982391</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2260,37 +2260,37 @@
         <v>45287.6266558223</v>
       </c>
       <c r="N13" s="36">
-        <v>19.490532443255599</v>
+        <v>19.498716997156201</v>
       </c>
       <c r="O13" s="37">
-        <v>4.3435053287620597</v>
+        <v>4.3462372341034996</v>
       </c>
       <c r="P13" s="37">
-        <v>0.10316197057414001</v>
+        <v>0.10309962960723</v>
       </c>
       <c r="Q13" s="37">
-        <v>0.15413920569223</v>
+        <v>0.15410709357039001</v>
       </c>
       <c r="R13" s="37">
-        <v>0.25772697852972998</v>
+        <v>0.25773398989689</v>
       </c>
       <c r="S13" s="36">
-        <v>4.0857783502323297</v>
+        <v>4.0885032442066098</v>
       </c>
       <c r="T13" s="37">
-        <v>8.0098381525514597</v>
+        <v>7.9886468706951597</v>
       </c>
       <c r="U13" s="37">
-        <v>9.5237135632829997E-2</v>
+        <v>9.5162606049359999E-2</v>
       </c>
       <c r="V13" s="37">
-        <v>0.16050294056732001</v>
+        <v>0.16035923137715</v>
       </c>
       <c r="W13" s="37">
-        <v>0.20601475858366999</v>
+        <v>0.20555169989693001</v>
       </c>
       <c r="X13" s="36">
-        <v>7.8038233939677903</v>
+        <v>7.7830951707982301</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -2408,37 +2408,37 @@
         <v>1319.5871506190001</v>
       </c>
       <c r="N15" s="25">
-        <v>6.3576647733965599</v>
+        <v>6.2513126569421402</v>
       </c>
       <c r="O15" s="26">
-        <v>0.45075026380708999</v>
+        <v>0.44321003539668002</v>
       </c>
       <c r="P15" s="26">
-        <v>4.4043024686409998E-2</v>
+        <v>4.3306265348289998E-2</v>
       </c>
       <c r="Q15" s="26">
-        <v>4.2917881763199998E-3</v>
+        <v>4.2199944010599998E-3</v>
       </c>
       <c r="R15" s="26">
-        <v>6.9774095546719997E-2</v>
+        <v>6.8606902402760003E-2</v>
       </c>
       <c r="S15" s="25">
-        <v>0.38097616826037001</v>
+        <v>0.37460313299391002</v>
       </c>
       <c r="T15" s="26">
-        <v>3.4768438692465802</v>
+        <v>3.4186826233716401</v>
       </c>
       <c r="U15" s="26">
-        <v>5.0001479032590002E-2</v>
+        <v>4.9165045639119997E-2</v>
       </c>
       <c r="V15" s="26">
-        <v>5.2912268847379998E-2</v>
+        <v>5.202714325821E-2</v>
       </c>
       <c r="W15" s="26">
-        <v>9.406846164905E-2</v>
+        <v>9.249486814506E-2</v>
       </c>
       <c r="X15" s="25">
-        <v>3.38277540759753</v>
+        <v>3.3261877552265902</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -2482,37 +2482,37 @@
         <v>99.001551283560104</v>
       </c>
       <c r="N16" s="25">
-        <v>6.8138176201132401</v>
+        <v>6.8106934520817202</v>
       </c>
       <c r="O16" s="26">
-        <v>1.60806914453385</v>
+        <v>1.6073318371250001</v>
       </c>
       <c r="P16" s="26">
-        <v>7.886794015404E-2</v>
+        <v>7.8831778825529997E-2</v>
       </c>
       <c r="Q16" s="26">
-        <v>7.4783675288309995E-2</v>
+        <v>7.4749386614820001E-2</v>
       </c>
       <c r="R16" s="26">
-        <v>0.19961761318224</v>
+        <v>0.19952608755001</v>
       </c>
       <c r="S16" s="25">
-        <v>1.4084515313516</v>
+        <v>1.407805749575</v>
       </c>
       <c r="T16" s="26">
-        <v>4.4484718882183003</v>
+        <v>4.4464322425398999</v>
       </c>
       <c r="U16" s="26">
-        <v>2.1988585961E-2</v>
+        <v>2.1978504088959998E-2</v>
       </c>
       <c r="V16" s="26">
-        <v>2.549148757628E-2</v>
+        <v>2.5479799607069999E-2</v>
       </c>
       <c r="W16" s="26">
-        <v>0.1003246823466</v>
+        <v>0.10027868299898</v>
       </c>
       <c r="X16" s="25">
-        <v>4.3481472058717001</v>
+        <v>4.3461535595409302</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -2556,37 +2556,37 @@
         <v>422.43278138120002</v>
       </c>
       <c r="N17" s="14">
-        <v>7.7886437775999697</v>
+        <v>7.7474072582972298</v>
       </c>
       <c r="O17" s="15">
-        <v>0.10447227104741</v>
+        <v>0.10391914871383</v>
       </c>
       <c r="P17" s="15">
-        <v>2.4925598724400001E-3</v>
+        <v>2.4793631598599999E-3</v>
       </c>
       <c r="Q17" s="15">
-        <v>1.5904192557199999E-3</v>
+        <v>1.58199887392E-3</v>
       </c>
       <c r="R17" s="15">
-        <v>1.1237861488190001E-2</v>
+        <v>1.1178363287289999E-2</v>
       </c>
       <c r="S17" s="14">
-        <v>9.3234409559219994E-2</v>
+        <v>9.2740785426540004E-2</v>
       </c>
       <c r="T17" s="15">
-        <v>4.05213067184767</v>
+        <v>4.0306769028169898</v>
       </c>
       <c r="U17" s="15">
-        <v>2.7525007487699999E-2</v>
+        <v>2.7379277944150002E-2</v>
       </c>
       <c r="V17" s="15">
-        <v>2.9043660324970001E-2</v>
+        <v>2.888989036273E-2</v>
       </c>
       <c r="W17" s="15">
-        <v>0.18882548452166001</v>
+        <v>0.18782575902904999</v>
       </c>
       <c r="X17" s="14">
-        <v>3.8633051873260098</v>
+        <v>3.8428511437879398</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -2630,37 +2630,37 @@
         <v>1351.0401017208001</v>
       </c>
       <c r="N18" s="14">
-        <v>36.633820783319898</v>
+        <v>36.633865127788901</v>
       </c>
       <c r="O18" s="15">
-        <v>4.8627248393855602</v>
+        <v>4.8627307256116303</v>
       </c>
       <c r="P18" s="15">
-        <v>0.10842987726366</v>
+        <v>0.10843000851574</v>
       </c>
       <c r="Q18" s="15">
-        <v>0.11327293707973</v>
+        <v>0.11327307419422999</v>
       </c>
       <c r="R18" s="15">
-        <v>0.33293733252909002</v>
+        <v>0.33293773554271999</v>
       </c>
       <c r="S18" s="14">
-        <v>4.5297875068564801</v>
+        <v>4.5297929900689198</v>
       </c>
       <c r="T18" s="15">
-        <v>10.626646478273599</v>
+        <v>10.6266593416055</v>
       </c>
       <c r="U18" s="15">
-        <v>7.8741508020299996E-3</v>
+        <v>7.8741603335300003E-3</v>
       </c>
       <c r="V18" s="15">
-        <v>7.72813532433E-3</v>
+        <v>7.72814467907E-3</v>
       </c>
       <c r="W18" s="15">
-        <v>6.3851505449470006E-2</v>
+        <v>6.3851582740370005E-2</v>
       </c>
       <c r="X18" s="14">
-        <v>10.5627949728242</v>
+        <v>10.562807758865199</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -3000,37 +3000,37 @@
         <v>6345.9236747856103</v>
       </c>
       <c r="N23" s="36">
-        <v>9.0691609021363409</v>
+        <v>9.00365631956093</v>
       </c>
       <c r="O23" s="37">
-        <v>0.95546199429060996</v>
+        <v>0.94780339787046997</v>
       </c>
       <c r="P23" s="37">
-        <v>4.1550208565600003E-2</v>
+        <v>4.1303409432220002E-2</v>
       </c>
       <c r="Q23" s="37">
-        <v>1.8594969497659999E-2</v>
+        <v>1.8429807199840002E-2</v>
       </c>
       <c r="R23" s="37">
-        <v>0.10233009178282</v>
+        <v>0.10158551543953</v>
       </c>
       <c r="S23" s="36">
-        <v>0.85313190250779003</v>
+        <v>0.84621788243093998</v>
       </c>
       <c r="T23" s="37">
-        <v>4.5705864640977598</v>
+        <v>4.5385249063862902</v>
       </c>
       <c r="U23" s="37">
-        <v>3.5775259470939999E-2</v>
+        <v>3.5604943037310002E-2</v>
       </c>
       <c r="V23" s="37">
-        <v>2.3774039445499998E-2</v>
+        <v>2.3729922527039999E-2</v>
       </c>
       <c r="W23" s="37">
-        <v>0.10033653547283</v>
+        <v>9.9692224741809998E-2</v>
       </c>
       <c r="X23" s="36">
-        <v>4.4702499286249298</v>
+        <v>4.4388326816444703</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
@@ -3148,37 +3148,37 @@
         <v>40.764166191248997</v>
       </c>
       <c r="N25" s="25">
-        <v>4.0781778713755097</v>
+        <v>4.11358378760601</v>
       </c>
       <c r="O25" s="26">
-        <v>0.91558360613294998</v>
+        <v>0.92353251799584002</v>
       </c>
       <c r="P25" s="26">
-        <v>6.30558590826E-3</v>
+        <v>6.3603297309899999E-3</v>
       </c>
       <c r="Q25" s="26">
-        <v>2.844522480334E-2</v>
+        <v>2.8692180497349999E-2</v>
       </c>
       <c r="R25" s="26">
-        <v>9.2422551736170006E-2</v>
+        <v>9.3224945655170005E-2</v>
       </c>
       <c r="S25" s="25">
-        <v>0.82316105439678</v>
+        <v>0.83030757234067998</v>
       </c>
       <c r="T25" s="26">
-        <v>1.3054762962758799</v>
+        <v>1.31681017769172</v>
       </c>
       <c r="U25" s="26">
-        <v>4.3147867605800002E-3</v>
+        <v>4.3522468673700002E-3</v>
       </c>
       <c r="V25" s="26">
-        <v>1.654374209814E-2</v>
+        <v>1.668737152416E-2</v>
       </c>
       <c r="W25" s="26">
-        <v>8.7277860274830005E-2</v>
+        <v>8.8035589022110006E-2</v>
       </c>
       <c r="X25" s="25">
-        <v>1.21819843600106</v>
+        <v>1.22877458866961</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
@@ -3296,7 +3296,7 @@
         <v>904.76693970450003</v>
       </c>
       <c r="N27" s="25">
-        <v>3.9981902627121499</v>
+        <v>3.9981902627121602</v>
       </c>
       <c r="O27" s="26">
         <v>0.17118789658433001</v>
@@ -3370,37 +3370,37 @@
         <v>1882.6853766221</v>
       </c>
       <c r="N28" s="25">
-        <v>5.9895509207791999</v>
+        <v>5.9868132249957497</v>
       </c>
       <c r="O28" s="26">
-        <v>0.67309856037114002</v>
+        <v>0.67279090139720998</v>
       </c>
       <c r="P28" s="26">
-        <v>6.7524691815500004E-3</v>
+        <v>6.7493827721199998E-3</v>
       </c>
       <c r="Q28" s="26">
-        <v>8.1575298064099997E-3</v>
+        <v>8.1538011737900002E-3</v>
       </c>
       <c r="R28" s="26">
-        <v>4.8083481987619997E-2</v>
+        <v>4.8061504055109998E-2</v>
       </c>
       <c r="S28" s="25">
-        <v>0.62501507838352</v>
+        <v>0.62472939734209998</v>
       </c>
       <c r="T28" s="26">
-        <v>1.9632047970544999</v>
+        <v>1.96230745807766</v>
       </c>
       <c r="U28" s="26">
-        <v>4.1593125216600003E-2</v>
+        <v>4.1574113887540003E-2</v>
       </c>
       <c r="V28" s="26">
-        <v>4.7305917121480003E-2</v>
+        <v>4.7284294597260003E-2</v>
       </c>
       <c r="W28" s="26">
-        <v>8.9100918797279993E-2</v>
+        <v>8.9060192670580005E-2</v>
       </c>
       <c r="X28" s="25">
-        <v>1.8741038782572099</v>
+        <v>1.87324726540708</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
@@ -3518,37 +3518,37 @@
         <v>636.58414771929995</v>
       </c>
       <c r="N30" s="25">
-        <v>14.246503399515399</v>
+        <v>14.247046663723101</v>
       </c>
       <c r="O30" s="26">
-        <v>6.5760380013395503</v>
+        <v>6.57628876645538</v>
       </c>
       <c r="P30" s="26">
         <v>0</v>
       </c>
       <c r="Q30" s="26">
-        <v>8.8441409841940002E-2</v>
+        <v>8.8444782392459995E-2</v>
       </c>
       <c r="R30" s="26">
-        <v>0.39153577237196002</v>
+        <v>0.3915507028686</v>
       </c>
       <c r="S30" s="25">
-        <v>6.1845022289675899</v>
+        <v>6.1847380635867699</v>
       </c>
       <c r="T30" s="26">
-        <v>4.6851837389175</v>
+        <v>4.68536239978331</v>
       </c>
       <c r="U30" s="26">
         <v>0</v>
       </c>
       <c r="V30" s="26">
-        <v>7.6855291311860002E-2</v>
+        <v>7.6858222047050007E-2</v>
       </c>
       <c r="W30" s="26">
-        <v>0.15315443493021999</v>
+        <v>0.15316027519294001</v>
       </c>
       <c r="X30" s="25">
-        <v>4.5320293039872803</v>
+        <v>4.5322021245903699</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
@@ -3666,37 +3666,37 @@
         <v>86.850172751719995</v>
       </c>
       <c r="N32" s="25">
-        <v>14.3519499447531</v>
+        <v>13.4757846144313</v>
       </c>
       <c r="O32" s="26">
-        <v>10.445665616068901</v>
+        <v>9.8079731700832191</v>
       </c>
       <c r="P32" s="26">
         <v>0</v>
       </c>
       <c r="Q32" s="26">
-        <v>0.57531984696601002</v>
+        <v>0.54019742069653998</v>
       </c>
       <c r="R32" s="26">
-        <v>1.2904064855227599</v>
+        <v>1.21162907694834</v>
       </c>
       <c r="S32" s="25">
-        <v>9.1552591305461206</v>
+        <v>8.59634409313486</v>
       </c>
       <c r="T32" s="26">
-        <v>5.6688419798119298</v>
+        <v>5.3227675561340897</v>
       </c>
       <c r="U32" s="26">
         <v>0</v>
       </c>
       <c r="V32" s="26">
-        <v>1.8665923192490001E-2</v>
+        <v>1.752639617194E-2</v>
       </c>
       <c r="W32" s="26">
-        <v>0.17226201693363</v>
+        <v>0.16174567542258</v>
       </c>
       <c r="X32" s="25">
-        <v>5.4965799628783003</v>
+        <v>5.1610218807115</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
@@ -3740,37 +3740,37 @@
         <v>11.011435108240001</v>
       </c>
       <c r="N33" s="25">
-        <v>0.52094550440278997</v>
+        <v>0.40707402703912998</v>
       </c>
       <c r="O33" s="26">
-        <v>9.767180967472E-2</v>
+        <v>7.6322103860109999E-2</v>
       </c>
       <c r="P33" s="26">
-        <v>1.3546266462100001E-3</v>
+        <v>1.05852400941E-3</v>
       </c>
       <c r="Q33" s="26">
-        <v>3.8011405154000002E-3</v>
+        <v>2.9702638066199999E-3</v>
       </c>
       <c r="R33" s="26">
-        <v>1.188165763726E-2</v>
+        <v>9.2844917201900003E-3</v>
       </c>
       <c r="S33" s="25">
-        <v>8.5790152037460002E-2</v>
+        <v>6.7037612139909997E-2</v>
       </c>
       <c r="T33" s="26">
-        <v>0.22772473593695999</v>
+        <v>0.17794726037717001</v>
       </c>
       <c r="U33" s="26">
-        <v>5.2530468317999997E-4</v>
+        <v>4.1048034967E-4</v>
       </c>
       <c r="V33" s="26">
-        <v>1.55202294899E-3</v>
+        <v>1.2127722123800001E-3</v>
       </c>
       <c r="W33" s="26">
-        <v>1.0165194609260001E-2</v>
+        <v>7.9432237542300006E-3</v>
       </c>
       <c r="X33" s="25">
-        <v>0.21755954132769001</v>
+        <v>0.17000403662294</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.35">
@@ -3814,37 +3814,37 @@
         <v>230.49021990700001</v>
       </c>
       <c r="N34" s="19">
-        <v>12.580144173377001</v>
+        <v>10.8535583562829</v>
       </c>
       <c r="O34" s="20">
-        <v>0.25051101834204997</v>
+        <v>0.21612915710627001</v>
       </c>
       <c r="P34" s="20">
-        <v>4.5919975632800003E-3</v>
+        <v>3.9617601227900003E-3</v>
       </c>
       <c r="Q34" s="20">
-        <v>6.71895672212E-3</v>
+        <v>5.7968007259500002E-3</v>
       </c>
       <c r="R34" s="20">
-        <v>2.699236332402E-2</v>
+        <v>2.3287745074589999E-2</v>
       </c>
       <c r="S34" s="19">
-        <v>0.22351865501803</v>
+        <v>0.19284141203168001</v>
       </c>
       <c r="T34" s="20">
-        <v>5.3138384219313002</v>
+        <v>4.5845305597008696</v>
       </c>
       <c r="U34" s="20">
-        <v>1.4047353739849999E-2</v>
+        <v>1.211939795487E-2</v>
       </c>
       <c r="V34" s="20">
-        <v>3.6338587359699998E-2</v>
+        <v>3.1351228814060002E-2</v>
       </c>
       <c r="W34" s="20">
-        <v>0.29081473548425002</v>
+        <v>0.25090131392332998</v>
       </c>
       <c r="X34" s="19">
-        <v>5.0230236864470497</v>
+        <v>4.3336292457775398</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
@@ -4036,37 +4036,37 @@
         <v>283.81099826044999</v>
       </c>
       <c r="N37" s="25">
-        <v>2.5009538656246999</v>
+        <v>2.4972181640958602</v>
       </c>
       <c r="O37" s="26">
-        <v>0.23814683832149</v>
+        <v>0.23779111584286999</v>
       </c>
       <c r="P37" s="26">
-        <v>6.1213721539049998E-2</v>
+        <v>6.1122285948699999E-2</v>
       </c>
       <c r="Q37" s="26">
-        <v>6.1997133235889998E-2</v>
+        <v>6.1904527455119998E-2</v>
       </c>
       <c r="R37" s="26">
-        <v>7.7765793527340005E-2</v>
+        <v>7.7649633930090001E-2</v>
       </c>
       <c r="S37" s="25">
-        <v>0.16038104479415999</v>
+        <v>0.16014148191277999</v>
       </c>
       <c r="T37" s="26">
-        <v>0.79211426895821002</v>
+        <v>0.79093107940551999</v>
       </c>
       <c r="U37" s="26">
-        <v>1.292102623748E-2</v>
+        <v>1.290172596244E-2</v>
       </c>
       <c r="V37" s="26">
-        <v>1.1981745020800001E-2</v>
+        <v>1.1963847760160001E-2</v>
       </c>
       <c r="W37" s="26">
-        <v>4.5268785547339999E-2</v>
+        <v>4.5201167078359999E-2</v>
       </c>
       <c r="X37" s="25">
-        <v>0.74684548341087997</v>
+        <v>0.74572991232716002</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4110,37 +4110,37 @@
         <v>7840.9599313137096</v>
       </c>
       <c r="N38" s="36">
-        <v>4.1047603329184801</v>
+        <v>4.0576655152825802</v>
       </c>
       <c r="O38" s="37">
-        <v>0.52788287542279999</v>
+        <v>0.52350022275902997</v>
       </c>
       <c r="P38" s="37">
-        <v>1.287023889719E-2</v>
+        <v>1.275925550367E-2</v>
       </c>
       <c r="Q38" s="37">
-        <v>2.0068003787620001E-2</v>
+        <v>1.9895545322780001E-2</v>
       </c>
       <c r="R38" s="37">
-        <v>4.7954282567070003E-2</v>
+        <v>4.7537340492580002E-2</v>
       </c>
       <c r="S38" s="36">
-        <v>0.47992859285572997</v>
+        <v>0.47596288226645</v>
       </c>
       <c r="T38" s="37">
-        <v>2.0945052639461501</v>
+        <v>2.0786760352925802</v>
       </c>
       <c r="U38" s="37">
-        <v>2.1013247765150001E-2</v>
+        <v>2.08522682903E-2</v>
       </c>
       <c r="V38" s="37">
-        <v>1.9992355105100001E-2</v>
+        <v>1.979832705209E-2</v>
       </c>
       <c r="W38" s="37">
-        <v>8.1234557730020002E-2</v>
+        <v>8.0366460558510003E-2</v>
       </c>
       <c r="X38" s="36">
-        <v>2.0132707062161299</v>
+        <v>1.99830957473408</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
@@ -4554,37 +4554,37 @@
         <v>2459.9349235557002</v>
       </c>
       <c r="N44" s="25">
-        <v>19.645272161369899</v>
+        <v>18.420884578514901</v>
       </c>
       <c r="O44" s="26">
-        <v>10.088445781897301</v>
+        <v>9.4596854550258591</v>
       </c>
       <c r="P44" s="26">
-        <v>9.2519349077380006E-2</v>
+        <v>8.6753099505799999E-2</v>
       </c>
       <c r="Q44" s="26">
-        <v>0.22002911899096</v>
+        <v>0.20631584900182001</v>
       </c>
       <c r="R44" s="26">
-        <v>0.33686220197090999</v>
+        <v>0.31586733390095001</v>
       </c>
       <c r="S44" s="25">
-        <v>9.7515835799263701</v>
+        <v>9.1438181211249194</v>
       </c>
       <c r="T44" s="26">
-        <v>6.5259233662798497</v>
+        <v>6.1191965227572602</v>
       </c>
       <c r="U44" s="26">
-        <v>0.18133816622136001</v>
+        <v>0.1700363019766</v>
       </c>
       <c r="V44" s="26">
-        <v>0.22128210621781999</v>
+        <v>0.20749074405518</v>
       </c>
       <c r="W44" s="26">
-        <v>0.24557207579129001</v>
+        <v>0.23026684622638999</v>
       </c>
       <c r="X44" s="25">
-        <v>6.2803512904885599</v>
+        <v>5.8889296765308599</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4628,37 +4628,37 @@
         <v>60276.133561852803</v>
       </c>
       <c r="N45" s="36">
-        <v>14.2162380673035</v>
+        <v>14.1629683850218</v>
       </c>
       <c r="O45" s="37">
-        <v>2.9103144389300399</v>
+        <v>2.8998913170856002</v>
       </c>
       <c r="P45" s="37">
-        <v>8.1236609836510001E-2</v>
+        <v>8.0930639251670003E-2</v>
       </c>
       <c r="Q45" s="37">
-        <v>4.6199877516879997E-2</v>
+        <v>4.6039173980500003E-2</v>
       </c>
       <c r="R45" s="37">
-        <v>8.4327649636639995E-2</v>
+        <v>8.4029175051949997E-2</v>
       </c>
       <c r="S45" s="36">
-        <v>2.8259867892933999</v>
+        <v>2.8158621420336498</v>
       </c>
       <c r="T45" s="37">
-        <v>8.1573837369009805</v>
+        <v>8.1264399767044004</v>
       </c>
       <c r="U45" s="37">
-        <v>7.9275715329409996E-2</v>
+        <v>7.8984366176370002E-2</v>
       </c>
       <c r="V45" s="37">
-        <v>5.5535566528510001E-2</v>
+        <v>5.5338955563550001E-2</v>
       </c>
       <c r="W45" s="37">
-        <v>8.1500947233950002E-2</v>
+        <v>8.1206120199909998E-2</v>
       </c>
       <c r="X45" s="36">
-        <v>8.0758827896670198</v>
+        <v>8.0452338565044705</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
@@ -5294,37 +5294,37 @@
         <v>238.14603306792</v>
       </c>
       <c r="N54" s="25">
-        <v>12.370908749319099</v>
+        <v>12.3712643591827</v>
       </c>
       <c r="O54" s="26">
-        <v>2.8524325891007098</v>
+        <v>2.8525145841412001</v>
       </c>
       <c r="P54" s="26">
-        <v>2.1493460110060002E-2</v>
+        <v>2.1494077953630002E-2</v>
       </c>
       <c r="Q54" s="26">
-        <v>8.7038399065329994E-2</v>
+        <v>8.7040901041039995E-2</v>
       </c>
       <c r="R54" s="26">
-        <v>0.43490034424834001</v>
+        <v>0.43491284574319999</v>
       </c>
       <c r="S54" s="25">
-        <v>2.4175322448523602</v>
+        <v>2.4176017383979902</v>
       </c>
       <c r="T54" s="26">
-        <v>7.8135232877408898</v>
+        <v>7.8137478925784603</v>
       </c>
       <c r="U54" s="26">
-        <v>3.0880895290799999E-3</v>
+        <v>3.0881782982300002E-3</v>
       </c>
       <c r="V54" s="26">
-        <v>1.343892615521E-2</v>
+        <v>1.343931246593E-2</v>
       </c>
       <c r="W54" s="26">
-        <v>8.205730524622E-2</v>
+        <v>8.2059664037129998E-2</v>
       </c>
       <c r="X54" s="25">
-        <v>7.7314659824946803</v>
+        <v>7.73168822854133</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
@@ -5368,37 +5368,37 @@
         <v>217.17921924428001</v>
       </c>
       <c r="N55" s="25">
-        <v>3.1881991491276298</v>
+        <v>3.1881991019512501</v>
       </c>
       <c r="O55" s="26">
-        <v>0.19784111010059</v>
+        <v>0.19784110717309</v>
       </c>
       <c r="P55" s="26">
-        <v>2.427228881307E-2</v>
+        <v>2.4272288453909999E-2</v>
       </c>
       <c r="Q55" s="26">
-        <v>3.0201820302989998E-2</v>
+        <v>3.0201819856089999E-2</v>
       </c>
       <c r="R55" s="26">
-        <v>4.1667827045229998E-2</v>
+        <v>4.166782642867E-2</v>
       </c>
       <c r="S55" s="25">
-        <v>0.15617328305535</v>
+        <v>0.15617328074442999</v>
       </c>
       <c r="T55" s="26">
-        <v>1.3483144638740301</v>
+        <v>1.3483144439227699</v>
       </c>
       <c r="U55" s="26">
-        <v>3.9612898877510003E-2</v>
+        <v>3.961289829135E-2</v>
       </c>
       <c r="V55" s="26">
-        <v>4.42724251624E-2</v>
+        <v>4.4272424507299998E-2</v>
       </c>
       <c r="W55" s="26">
-        <v>9.1565071542589999E-2</v>
+        <v>9.1565070187679995E-2</v>
       </c>
       <c r="X55" s="25">
-        <v>1.2567493923314299</v>
+        <v>1.2567493737350801</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
@@ -5590,37 +5590,37 @@
         <v>625.07750570235999</v>
       </c>
       <c r="N58" s="25">
-        <v>7.3218397893222802</v>
+        <v>7.2911738987222501</v>
       </c>
       <c r="O58" s="26">
-        <v>1.21018738526037</v>
+        <v>1.2051187856966299</v>
       </c>
       <c r="P58" s="26">
-        <v>1.0297693587050001E-2</v>
+        <v>1.0254563997479999E-2</v>
       </c>
       <c r="Q58" s="26">
-        <v>0.11340560069041</v>
+        <v>0.11293062666144001</v>
       </c>
       <c r="R58" s="26">
-        <v>0.17892381300457</v>
+        <v>0.17817443057703999</v>
       </c>
       <c r="S58" s="25">
-        <v>1.0312635722557899</v>
+        <v>1.02694435511959</v>
       </c>
       <c r="T58" s="26">
-        <v>2.7893859312984599</v>
+        <v>2.7777032113439502</v>
       </c>
       <c r="U58" s="26">
-        <v>3.0765772559050001E-2</v>
+        <v>3.0636916992320001E-2</v>
       </c>
       <c r="V58" s="26">
-        <v>3.7444122841969997E-2</v>
+        <v>3.7287296496720003E-2</v>
       </c>
       <c r="W58" s="26">
-        <v>0.10747884536322</v>
+        <v>0.10702869422517999</v>
       </c>
       <c r="X58" s="25">
-        <v>2.6819070859352401</v>
+        <v>2.67067451711877</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.35">
@@ -5664,37 +5664,37 @@
         <v>96.010529873400003</v>
       </c>
       <c r="N59" s="25">
-        <v>7.3679725633148596</v>
+        <v>7.4495856157129996</v>
       </c>
       <c r="O59" s="26">
-        <v>2.7023182666546899</v>
+        <v>2.7322511200139701</v>
       </c>
       <c r="P59" s="26">
-        <v>1.397240504868E-2</v>
+        <v>1.412717362519E-2</v>
       </c>
       <c r="Q59" s="26">
-        <v>6.1936094447090001E-2</v>
+        <v>6.26221439238E-2</v>
       </c>
       <c r="R59" s="26">
-        <v>0.30030983376728998</v>
+        <v>0.30363628510628998</v>
       </c>
       <c r="S59" s="25">
-        <v>2.4020084328873899</v>
+        <v>2.4286148349076799</v>
       </c>
       <c r="T59" s="26">
-        <v>2.4154517962370101</v>
+        <v>2.44220710678105</v>
       </c>
       <c r="U59" s="26">
-        <v>5.4865215546700003E-3</v>
+        <v>5.5472942797700001E-3</v>
       </c>
       <c r="V59" s="26">
-        <v>1.504254278406E-2</v>
+        <v>1.520916498873E-2</v>
       </c>
       <c r="W59" s="26">
-        <v>8.4476613418889998E-2</v>
+        <v>8.5412338167880006E-2</v>
       </c>
       <c r="X59" s="25">
-        <v>2.3309751828181202</v>
+        <v>2.3567947686131698</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5810,37 +5810,37 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N61" s="36">
-        <v>6.6486055642573403</v>
+        <v>6.6482723993702004</v>
       </c>
       <c r="O61" s="37">
-        <v>0.41329065067832998</v>
+        <v>0.41337434489154001</v>
       </c>
       <c r="P61" s="37">
-        <v>8.2046998595300003E-3</v>
+        <v>8.2045437098999998E-3</v>
       </c>
       <c r="Q61" s="37">
-        <v>2.527915407405E-2</v>
+        <v>2.527404052582E-2</v>
       </c>
       <c r="R61" s="37">
-        <v>4.1246032785430001E-2</v>
+        <v>4.1252324231519998E-2</v>
       </c>
       <c r="S61" s="36">
-        <v>0.3720446178929</v>
+        <v>0.37212202066001998</v>
       </c>
       <c r="T61" s="37">
-        <v>3.8480587009215501</v>
+        <v>3.84784061725937</v>
       </c>
       <c r="U61" s="37">
-        <v>1.154620286917E-2</v>
+        <v>1.1543782130760001E-2</v>
       </c>
       <c r="V61" s="37">
-        <v>2.5043708711090001E-2</v>
+        <v>2.5040825076000001E-2</v>
       </c>
       <c r="W61" s="37">
-        <v>8.8682587565559995E-2</v>
+        <v>8.8676434776480004E-2</v>
       </c>
       <c r="X61" s="36">
-        <v>3.75937611335599</v>
+        <v>3.7591641824828899</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5882,37 +5882,37 @@
         <v>145934.05073111199</v>
       </c>
       <c r="N62" s="44">
-        <v>11.4358699684639</v>
+        <v>11.4008938049682</v>
       </c>
       <c r="O62" s="45">
-        <v>2.0791049548537899</v>
+        <v>2.07338023885776</v>
       </c>
       <c r="P62" s="45">
-        <v>5.4000475459979998E-2</v>
+        <v>5.3826721726280002E-2</v>
       </c>
       <c r="Q62" s="45">
-        <v>5.6485197110010002E-2</v>
+        <v>5.6296379464409997E-2</v>
       </c>
       <c r="R62" s="45">
-        <v>0.10211385822183</v>
+        <v>0.10179712028590999</v>
       </c>
       <c r="S62" s="44">
-        <v>1.9769910966319599</v>
+        <v>1.97158311857185</v>
       </c>
       <c r="T62" s="45">
-        <v>5.8787555825557103</v>
+        <v>5.8574681396429096</v>
       </c>
       <c r="U62" s="45">
-        <v>5.3716922784579998E-2</v>
+        <v>5.354717689704E-2</v>
       </c>
       <c r="V62" s="45">
-        <v>6.1079572900010003E-2</v>
+        <v>6.0859614651940001E-2</v>
       </c>
       <c r="W62" s="45">
-        <v>0.10845311951736</v>
+        <v>0.10799941796321</v>
       </c>
       <c r="X62" s="44">
-        <v>5.7703024630383499</v>
+        <v>5.7494687216797002</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5954,37 +5954,37 @@
         <v>2702179.4365219502</v>
       </c>
       <c r="N63" s="44">
-        <v>17.047841128658899</v>
+        <v>17.002025759882599</v>
       </c>
       <c r="O63" s="45">
-        <v>7.0762961565390103</v>
+        <v>7.0545395175133896</v>
       </c>
       <c r="P63" s="45">
-        <v>1.36598023062742</v>
+        <v>1.3623516858096401</v>
       </c>
       <c r="Q63" s="45">
         <v>0</v>
       </c>
       <c r="R63" s="45">
-        <v>3.9750710046206499</v>
+        <v>3.9624828338301898</v>
       </c>
       <c r="S63" s="44">
-        <v>3.1012251519183698</v>
+        <v>3.0920566836832002</v>
       </c>
       <c r="T63" s="45">
-        <v>7.6076682048926898</v>
+        <v>7.58870162459091</v>
       </c>
       <c r="U63" s="45">
-        <v>1.42301676425664</v>
+        <v>1.4186784676375701</v>
       </c>
       <c r="V63" s="45">
         <v>0</v>
       </c>
       <c r="W63" s="45">
-        <v>4.2563105894420996</v>
+        <v>4.2441491179852697</v>
       </c>
       <c r="X63" s="44">
-        <v>3.3513576154505902</v>
+        <v>3.3445525066056399</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
@@ -6026,37 +6026,37 @@
         <v>173784.20204953599</v>
       </c>
       <c r="N64" s="50">
-        <v>15.171155356074699</v>
+        <v>15.1859596783046</v>
       </c>
       <c r="O64" s="51">
-        <v>4.5014347283067098</v>
+        <v>4.5051745586843799</v>
       </c>
       <c r="P64" s="51">
-        <v>1.2788297209480299</v>
+        <v>1.2797136385518899</v>
       </c>
       <c r="Q64" s="51">
         <v>0</v>
       </c>
       <c r="R64" s="51">
-        <v>1.4991035114908999</v>
+        <v>1.50033637813792</v>
       </c>
       <c r="S64" s="50">
-        <v>3.0023312168158101</v>
+        <v>3.0048381805464599</v>
       </c>
       <c r="T64" s="51">
-        <v>4.2997485088902199</v>
+        <v>4.3041137552772</v>
       </c>
       <c r="U64" s="51">
-        <v>0.53430601603899996</v>
+        <v>0.53471090151049006</v>
       </c>
       <c r="V64" s="51">
         <v>0</v>
       </c>
       <c r="W64" s="51">
-        <v>0.83222405590824999</v>
+        <v>0.83323054557993004</v>
       </c>
       <c r="X64" s="50">
-        <v>3.46752445298198</v>
+        <v>3.4708832096972801</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
@@ -6098,37 +6098,37 @@
         <v>1014883.9473665101</v>
       </c>
       <c r="N65" s="55">
-        <v>15.1276857749257</v>
+        <v>15.0437206607428</v>
       </c>
       <c r="O65" s="56">
-        <v>3.2921065714842301</v>
+        <v>3.2716920119971098</v>
       </c>
       <c r="P65" s="56">
-        <v>0.38488925805002999</v>
+        <v>0.38309201275744997</v>
       </c>
       <c r="Q65" s="56">
         <v>0</v>
       </c>
       <c r="R65" s="56">
-        <v>1.90687309215793</v>
+        <v>1.8948429437175001</v>
       </c>
       <c r="S65" s="55">
-        <v>1.3852334793263099</v>
+        <v>1.3768490682796199</v>
       </c>
       <c r="T65" s="56">
-        <v>7.3795115872630799</v>
+        <v>7.3430242931119603</v>
       </c>
       <c r="U65" s="56">
-        <v>0.57374578077513005</v>
+        <v>0.56999140314665997</v>
       </c>
       <c r="V65" s="56">
         <v>0</v>
       </c>
       <c r="W65" s="56">
-        <v>2.9068079062792598</v>
+        <v>2.8907194290475098</v>
       </c>
       <c r="X65" s="55">
-        <v>4.4727036809838197</v>
+        <v>4.45230486406445</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6170,37 +6170,37 @@
         <v>2848113.4872530699</v>
       </c>
       <c r="N66" s="60">
-        <v>16.7651696090232</v>
+        <v>16.720021878319098</v>
       </c>
       <c r="O66" s="61">
-        <v>6.8245907235336603</v>
+        <v>6.8037498088305597</v>
       </c>
       <c r="P66" s="61">
-        <v>1.2998966210474401</v>
+        <v>1.2964705171522</v>
       </c>
       <c r="Q66" s="61">
-        <v>2.8451244755599999E-3</v>
+        <v>2.8343909150399999E-3</v>
       </c>
       <c r="R66" s="61">
-        <v>3.7799925463025601</v>
+        <v>3.76810634609881</v>
       </c>
       <c r="S66" s="60">
-        <v>3.0445981772311099</v>
+        <v>3.0356434627317701</v>
       </c>
       <c r="T66" s="61">
-        <v>7.52058394442113</v>
+        <v>7.5015380714773796</v>
       </c>
       <c r="U66" s="61">
-        <v>1.3540459773482501</v>
+        <v>1.3499473029495299</v>
       </c>
       <c r="V66" s="61">
-        <v>3.07654034518E-3</v>
+        <v>3.0641391240999998E-3</v>
       </c>
       <c r="W66" s="61">
-        <v>4.0473855716921703</v>
+        <v>4.0359036634016503</v>
       </c>
       <c r="X66" s="60">
-        <v>3.4731983727289601</v>
+        <v>3.4656344080757302</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.35">
@@ -6242,37 +6242,37 @@
         <v>29486.6943419938</v>
       </c>
       <c r="N67" s="55">
-        <v>7.5406165900797699</v>
+        <v>7.4955130954767002</v>
       </c>
       <c r="O67" s="56">
-        <v>1.44376853245005</v>
+        <v>1.435544475255</v>
       </c>
       <c r="P67" s="56">
-        <v>3.3687456181379999E-2</v>
+        <v>3.339010288989E-2</v>
       </c>
       <c r="Q67" s="56">
-        <v>4.2704240146149999E-2</v>
+        <v>4.2358181826079998E-2</v>
       </c>
       <c r="R67" s="56">
-        <v>7.8058583020839997E-2</v>
+        <v>7.7495452879579999E-2</v>
       </c>
       <c r="S67" s="55">
-        <v>1.36570994942921</v>
+        <v>1.35804902237542</v>
       </c>
       <c r="T67" s="56">
-        <v>3.5934666813815399</v>
+        <v>3.56252755006637</v>
       </c>
       <c r="U67" s="56">
-        <v>2.703113003115E-2</v>
+        <v>2.6806114097690001E-2</v>
       </c>
       <c r="V67" s="56">
-        <v>7.0866215312689995E-2</v>
+        <v>7.0321181343640002E-2</v>
       </c>
       <c r="W67" s="56">
-        <v>0.10397604861544001</v>
+        <v>0.1031165916699</v>
       </c>
       <c r="X67" s="55">
-        <v>3.4894906327660999</v>
+        <v>3.4594109583964698</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.35">
@@ -6314,37 +6314,37 @@
         <v>54865.192131075899</v>
       </c>
       <c r="N68" s="55">
-        <v>8.2019650387868897</v>
+        <v>8.1659151246966797</v>
       </c>
       <c r="O68" s="56">
-        <v>1.3297642133388199</v>
+        <v>1.3242316408735899</v>
       </c>
       <c r="P68" s="56">
-        <v>5.2658532778040001E-2</v>
+        <v>5.2422642186020003E-2</v>
       </c>
       <c r="Q68" s="56">
-        <v>2.8214160168219999E-2</v>
+        <v>2.8094198354009999E-2</v>
       </c>
       <c r="R68" s="56">
-        <v>5.2015258018789999E-2</v>
+        <v>5.1797638746960001E-2</v>
       </c>
       <c r="S68" s="55">
-        <v>1.2777489553200301</v>
+        <v>1.27243400212663</v>
       </c>
       <c r="T68" s="56">
-        <v>4.2648193240670196</v>
+        <v>4.2477977459642702</v>
       </c>
       <c r="U68" s="56">
-        <v>5.0529419991899999E-2</v>
+        <v>5.0311716278470003E-2</v>
       </c>
       <c r="V68" s="56">
-        <v>4.1667676236610003E-2</v>
+        <v>4.1490047820679998E-2</v>
       </c>
       <c r="W68" s="56">
-        <v>8.5485312840829997E-2</v>
+        <v>8.5150451486000006E-2</v>
       </c>
       <c r="X68" s="55">
-        <v>4.1793340112261896</v>
+        <v>4.1626472944782602</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
@@ -6386,37 +6386,37 @@
         <v>4960.6854805660596</v>
       </c>
       <c r="N69" s="55">
-        <v>4.2327234092964403</v>
+        <v>4.1954087649156397</v>
       </c>
       <c r="O69" s="56">
-        <v>0.44885742675002999</v>
+        <v>0.44796352700794001</v>
       </c>
       <c r="P69" s="56">
-        <v>2.4897138481480001E-2</v>
+        <v>2.4862808966729998E-2</v>
       </c>
       <c r="Q69" s="56">
-        <v>2.6768097404089999E-2</v>
+        <v>2.6727336470330001E-2</v>
       </c>
       <c r="R69" s="56">
-        <v>5.2654983258760002E-2</v>
+        <v>5.2545265404289998E-2</v>
       </c>
       <c r="S69" s="55">
-        <v>0.39620244349126998</v>
+        <v>0.39541826160364002</v>
       </c>
       <c r="T69" s="56">
-        <v>2.3911377854440699</v>
+        <v>2.3756271056323399</v>
       </c>
       <c r="U69" s="56">
-        <v>3.9048244402869997E-2</v>
+        <v>3.8998518093809997E-2</v>
       </c>
       <c r="V69" s="56">
-        <v>2.880780794473E-2</v>
+        <v>2.8693560830369998E-2</v>
       </c>
       <c r="W69" s="56">
-        <v>0.11846351733064001</v>
+        <v>0.11761671576797</v>
       </c>
       <c r="X69" s="55">
-        <v>2.2726742681134202</v>
+        <v>2.2580103898643702</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
@@ -6458,37 +6458,37 @@
         <v>14545.8593116712</v>
       </c>
       <c r="N70" s="55">
-        <v>14.649573304892099</v>
+        <v>14.5801498731465</v>
       </c>
       <c r="O70" s="56">
-        <v>1.4430123957502601</v>
+        <v>1.43589481515294</v>
       </c>
       <c r="P70" s="56">
-        <v>4.3087073116929997E-2</v>
+        <v>4.2941926647520001E-2</v>
       </c>
       <c r="Q70" s="56">
-        <v>4.6451196841329999E-2</v>
+        <v>4.6195901330639999E-2</v>
       </c>
       <c r="R70" s="56">
-        <v>0.11122886240759999</v>
+        <v>0.11076846254096</v>
       </c>
       <c r="S70" s="55">
-        <v>1.33178353334266</v>
+        <v>1.3251263526119801</v>
       </c>
       <c r="T70" s="56">
-        <v>6.4417431323749401</v>
+        <v>6.4129100443287097</v>
       </c>
       <c r="U70" s="56">
-        <v>2.1074460071509999E-2</v>
+        <v>2.1067731087020002E-2</v>
       </c>
       <c r="V70" s="56">
-        <v>3.0191809246029998E-2</v>
+        <v>3.0128271284340001E-2</v>
       </c>
       <c r="W70" s="56">
-        <v>8.2745795080140003E-2</v>
+        <v>8.2497440442580006E-2</v>
       </c>
       <c r="X70" s="55">
-        <v>6.3589973372947899</v>
+        <v>6.3304126038861099</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
@@ -6530,37 +6530,37 @@
         <v>26183.406907337601</v>
       </c>
       <c r="N71" s="55">
-        <v>6.6486055642573403</v>
+        <v>6.6482723993702102</v>
       </c>
       <c r="O71" s="56">
-        <v>0.41329065067832998</v>
+        <v>0.41337434489154001</v>
       </c>
       <c r="P71" s="56">
-        <v>8.2046998595300003E-3</v>
+        <v>8.2045437098999998E-3</v>
       </c>
       <c r="Q71" s="56">
-        <v>2.527915407405E-2</v>
+        <v>2.527404052582E-2</v>
       </c>
       <c r="R71" s="56">
-        <v>4.1246032785430001E-2</v>
+        <v>4.1252324231519998E-2</v>
       </c>
       <c r="S71" s="55">
-        <v>0.3720446178929</v>
+        <v>0.37212202066001998</v>
       </c>
       <c r="T71" s="56">
-        <v>3.8480587009215501</v>
+        <v>3.84784061725937</v>
       </c>
       <c r="U71" s="56">
-        <v>1.154620286917E-2</v>
+        <v>1.1543782130760001E-2</v>
       </c>
       <c r="V71" s="56">
-        <v>2.5043708711090001E-2</v>
+        <v>2.5040825076000001E-2</v>
       </c>
       <c r="W71" s="56">
-        <v>8.8682587565559995E-2</v>
+        <v>8.8676434776480004E-2</v>
       </c>
       <c r="X71" s="55">
-        <v>3.75937611335599</v>
+        <v>3.7591641824828899</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.35">
@@ -6602,37 +6602,37 @@
         <v>4081.4468037392098</v>
       </c>
       <c r="N72" s="55">
-        <v>3.71726819307026</v>
+        <v>3.6598617909396398</v>
       </c>
       <c r="O72" s="56">
-        <v>0.29649743177666998</v>
+        <v>0.29312206582778</v>
       </c>
       <c r="P72" s="56">
-        <v>1.0302807113339999E-2</v>
+        <v>1.0183093497789999E-2</v>
       </c>
       <c r="Q72" s="56">
-        <v>1.149375024823E-2</v>
+        <v>1.135820167912E-2</v>
       </c>
       <c r="R72" s="56">
-        <v>2.930442620738E-2</v>
+        <v>2.8955804198729999E-2</v>
       </c>
       <c r="S72" s="55">
-        <v>0.26719300556928999</v>
+        <v>0.26416626162905998</v>
       </c>
       <c r="T72" s="56">
-        <v>1.5344359104087999</v>
+        <v>1.5192907705754299</v>
       </c>
       <c r="U72" s="56">
-        <v>1.5593930375870001E-2</v>
+        <v>1.543651446851E-2</v>
       </c>
       <c r="V72" s="56">
-        <v>1.7812451640390001E-2</v>
+        <v>1.7581417004179999E-2</v>
       </c>
       <c r="W72" s="56">
-        <v>5.3376939365219998E-2</v>
+        <v>5.2511188466649997E-2</v>
       </c>
       <c r="X72" s="55">
-        <v>1.48105897104358</v>
+        <v>1.4667795821087799</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.35">
@@ -6674,37 +6674,37 @@
         <v>50936.0976717546</v>
       </c>
       <c r="N73" s="55">
-        <v>16.582360597011501</v>
+        <v>16.5850358050503</v>
       </c>
       <c r="O73" s="56">
-        <v>3.6674688974120002</v>
+        <v>3.6687198934056</v>
       </c>
       <c r="P73" s="56">
-        <v>8.7367697467120004E-2</v>
+        <v>8.7298170662499994E-2</v>
       </c>
       <c r="Q73" s="56">
-        <v>0.12980409824243</v>
+        <v>0.12974424702531001</v>
       </c>
       <c r="R73" s="56">
-        <v>0.22534772252307</v>
+        <v>0.22529854371356001</v>
       </c>
       <c r="S73" s="55">
-        <v>3.4421211748889302</v>
+        <v>3.4434213496920401</v>
       </c>
       <c r="T73" s="56">
-        <v>7.2190778695049103</v>
+        <v>7.2009046035180804</v>
       </c>
       <c r="U73" s="56">
-        <v>8.4460331088320004E-2</v>
+        <v>8.438489986054E-2</v>
       </c>
       <c r="V73" s="56">
-        <v>0.13198998563365999</v>
+        <v>0.13184225272243999</v>
       </c>
       <c r="W73" s="56">
-        <v>0.19637371431365999</v>
+        <v>0.19597758280211</v>
       </c>
       <c r="X73" s="55">
-        <v>7.0227041551912404</v>
+        <v>7.0049270207159697</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.35">
@@ -6746,37 +6746,37 @@
         <v>50173.146192504799</v>
       </c>
       <c r="N74" s="55">
-        <v>22.156578434788202</v>
+        <v>21.976052444674199</v>
       </c>
       <c r="O74" s="56">
-        <v>5.0129414053531898</v>
+        <v>4.97306236730845</v>
       </c>
       <c r="P74" s="56">
-        <v>0.16950250169195999</v>
+        <v>0.16811156066537</v>
       </c>
       <c r="Q74" s="56">
-        <v>9.6687878814919997E-2</v>
+        <v>9.5923057215239999E-2</v>
       </c>
       <c r="R74" s="56">
-        <v>0.16387115682716999</v>
+        <v>0.16256873597754001</v>
       </c>
       <c r="S74" s="55">
-        <v>4.8490702485260204</v>
+        <v>4.8104936313309201</v>
       </c>
       <c r="T74" s="56">
-        <v>13.659194231813199</v>
+        <v>13.5469476267244</v>
       </c>
       <c r="U74" s="56">
-        <v>0.15428624635398999</v>
+        <v>0.15303677888066999</v>
       </c>
       <c r="V74" s="56">
-        <v>5.3791346318209997E-2</v>
+        <v>5.3382752732390001E-2</v>
       </c>
       <c r="W74" s="56">
-        <v>8.4745331648460001E-2</v>
+        <v>8.4083993491459993E-2</v>
       </c>
       <c r="X74" s="55">
-        <v>13.5744489001647</v>
+        <v>13.462863633232899</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6818,37 +6818,37 @@
         <v>8443.9620299036505</v>
       </c>
       <c r="N75" s="60">
-        <v>20.785057680896401</v>
+        <v>20.781921164209599</v>
       </c>
       <c r="O75" s="61">
-        <v>2.03594800810184</v>
+        <v>2.0357284695337801</v>
       </c>
       <c r="P75" s="61">
-        <v>6.6603496961970002E-2</v>
+        <v>6.662131705438E-2</v>
       </c>
       <c r="Q75" s="61">
-        <v>9.7382268239309996E-2</v>
+        <v>9.7394810863280001E-2</v>
       </c>
       <c r="R75" s="61">
-        <v>0.14404562483242001</v>
+        <v>0.14405948437249</v>
       </c>
       <c r="S75" s="60">
-        <v>1.8919023832694299</v>
+        <v>1.8916689851613</v>
       </c>
       <c r="T75" s="61">
-        <v>8.3943337885316396</v>
+        <v>8.3930142989048502</v>
       </c>
       <c r="U75" s="61">
-        <v>6.3093005470210003E-2</v>
+        <v>6.3154236179469997E-2</v>
       </c>
       <c r="V75" s="61">
-        <v>9.5913877447330001E-2</v>
+        <v>9.5969874991979995E-2</v>
       </c>
       <c r="W75" s="61">
-        <v>0.12311656770153</v>
+        <v>0.12317678813625001</v>
       </c>
       <c r="X75" s="60">
-        <v>8.2712172208300903</v>
+        <v>8.2698375107685909</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.35">
@@ -6890,37 +6890,37 @@
         <v>175227.039316696</v>
       </c>
       <c r="N76" s="55">
-        <v>29.568486410033302</v>
+        <v>29.5608304416251</v>
       </c>
       <c r="O76" s="56">
-        <v>14.694011933287699</v>
+        <v>14.6727296164721</v>
       </c>
       <c r="P76" s="56">
-        <v>0.80863781851570005</v>
+        <v>0.80862230321754003</v>
       </c>
       <c r="Q76" s="56">
         <v>0</v>
       </c>
       <c r="R76" s="56">
-        <v>9.7624195103635003</v>
+        <v>9.7475454870489493</v>
       </c>
       <c r="S76" s="55">
-        <v>4.9315924229241999</v>
+        <v>4.9251841294231902</v>
       </c>
       <c r="T76" s="56">
-        <v>12.6591061480691</v>
+        <v>12.656403171448501</v>
       </c>
       <c r="U76" s="56">
-        <v>0.73171993417868997</v>
+        <v>0.73174099509622004</v>
       </c>
       <c r="V76" s="56">
         <v>0</v>
       </c>
       <c r="W76" s="56">
-        <v>7.4449630164951701</v>
+        <v>7.4437086930727796</v>
       </c>
       <c r="X76" s="55">
-        <v>5.2141431315739197</v>
+        <v>5.2126944783756697</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
@@ -6962,37 +6962,37 @@
         <v>142975.47988690899</v>
       </c>
       <c r="N77" s="55">
-        <v>13.371860281879901</v>
+        <v>13.3933617289222</v>
       </c>
       <c r="O77" s="56">
-        <v>2.3188980446354401</v>
+        <v>2.32292338964786</v>
       </c>
       <c r="P77" s="56">
-        <v>0.43628818697108002</v>
+        <v>0.43707870876859001</v>
       </c>
       <c r="Q77" s="56">
         <v>0</v>
       </c>
       <c r="R77" s="56">
-        <v>0.52405425594377997</v>
+        <v>0.52502972576299001</v>
       </c>
       <c r="S77" s="55">
-        <v>1.7948437886916699</v>
+        <v>1.7978936638848699</v>
       </c>
       <c r="T77" s="56">
-        <v>4.9683961568941104</v>
+        <v>4.9761091813947997</v>
       </c>
       <c r="U77" s="56">
-        <v>0.46620301652050999</v>
+        <v>0.46689200131684</v>
       </c>
       <c r="V77" s="56">
         <v>0</v>
       </c>
       <c r="W77" s="56">
-        <v>0.55919264503892996</v>
+        <v>0.56004177269729005</v>
       </c>
       <c r="X77" s="55">
-        <v>4.4092035118551802</v>
+        <v>4.4160674086974998</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
@@ -7034,37 +7034,37 @@
         <v>365825.71761190199</v>
       </c>
       <c r="N78" s="55">
-        <v>29.871310331434099</v>
+        <v>29.846420922535799</v>
       </c>
       <c r="O78" s="56">
-        <v>21.715076139469801</v>
+        <v>21.699727461413602</v>
       </c>
       <c r="P78" s="56">
-        <v>5.3319065175257503</v>
+        <v>5.3292359944013397</v>
       </c>
       <c r="Q78" s="56">
         <v>0</v>
       </c>
       <c r="R78" s="56">
-        <v>12.8580511596354</v>
+        <v>12.849563684416101</v>
       </c>
       <c r="S78" s="55">
-        <v>8.8570249798343905</v>
+        <v>8.8501637769975705</v>
       </c>
       <c r="T78" s="56">
-        <v>13.546402696290199</v>
+        <v>13.5364790355642</v>
       </c>
       <c r="U78" s="56">
-        <v>5.07945275986852</v>
+        <v>5.0762727317434404</v>
       </c>
       <c r="V78" s="56">
         <v>0</v>
       </c>
       <c r="W78" s="56">
-        <v>11.3161844246009</v>
+        <v>11.3079642983875</v>
       </c>
       <c r="X78" s="55">
-        <v>2.2302182716893699</v>
+        <v>2.22851473717669</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7106,37 +7106,37 @@
         <v>1410292.3271423499</v>
       </c>
       <c r="N79" s="60">
-        <v>18.473703100383801</v>
+        <v>18.460920643882801</v>
       </c>
       <c r="O79" s="61">
-        <v>10.069885711842501</v>
+        <v>10.0631766014252</v>
       </c>
       <c r="P79" s="61">
-        <v>2.2412458323233801</v>
+        <v>2.2399729046011299</v>
       </c>
       <c r="Q79" s="61">
         <v>0</v>
       </c>
       <c r="R79" s="61">
-        <v>5.5584478767611003</v>
+        <v>5.5545351187131304</v>
       </c>
       <c r="S79" s="60">
-        <v>4.5114378350814199</v>
+        <v>4.5086414827120702</v>
       </c>
       <c r="T79" s="61">
-        <v>7.7469666571800699</v>
+        <v>7.7415734954525899</v>
       </c>
       <c r="U79" s="61">
-        <v>2.14765921402299</v>
+        <v>2.1459053705865698</v>
       </c>
       <c r="V79" s="61">
         <v>0</v>
       </c>
       <c r="W79" s="61">
-        <v>5.2092867562798197</v>
+        <v>5.2054972922739804</v>
       </c>
       <c r="X79" s="60">
-        <v>2.5376799009002502</v>
+        <v>2.5360762031786201</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
@@ -7178,37 +7178,37 @@
         <v>68903.429385236595</v>
       </c>
       <c r="N80" s="55">
-        <v>15.104007817587201</v>
+        <v>15.1017957366206</v>
       </c>
       <c r="O80" s="56">
-        <v>1.9331193067315</v>
+        <v>1.9329499067384901</v>
       </c>
       <c r="P80" s="56">
-        <v>2.0272075137970001E-2</v>
+        <v>2.0266743845379999E-2</v>
       </c>
       <c r="Q80" s="56">
-        <v>4.3060359492540001E-2</v>
+        <v>4.3051754720380003E-2</v>
       </c>
       <c r="R80" s="56">
-        <v>7.4824822967110002E-2</v>
+        <v>7.4812239212330003E-2</v>
       </c>
       <c r="S80" s="55">
-        <v>1.8582944837644</v>
+        <v>1.85813766752617</v>
       </c>
       <c r="T80" s="56">
-        <v>9.3368880384557205</v>
+        <v>9.3362169039181406</v>
       </c>
       <c r="U80" s="56">
-        <v>1.476896222167E-2</v>
+        <v>1.476933934864E-2</v>
       </c>
       <c r="V80" s="56">
-        <v>2.636242430487E-2</v>
+        <v>2.6358435584639999E-2</v>
       </c>
       <c r="W80" s="56">
-        <v>7.982063088086E-2</v>
+        <v>7.9816602490500002E-2</v>
       </c>
       <c r="X80" s="55">
-        <v>9.2570674075748496</v>
+        <v>9.2564003014276306</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
@@ -7250,37 +7250,37 @@
         <v>178811.34278700201</v>
       </c>
       <c r="N81" s="55">
-        <v>17.394783723424101</v>
+        <v>17.0184368867464</v>
       </c>
       <c r="O81" s="56">
-        <v>2.8251669998333502</v>
+        <v>2.76017991024358</v>
       </c>
       <c r="P81" s="56">
-        <v>0.62325766290762996</v>
+        <v>0.60811032654215003</v>
       </c>
       <c r="Q81" s="56">
         <v>0</v>
       </c>
       <c r="R81" s="56">
-        <v>1.4867234768087001</v>
+        <v>1.4527697422730901</v>
       </c>
       <c r="S81" s="55">
-        <v>1.3384435230246501</v>
+        <v>1.3074101679704999</v>
       </c>
       <c r="T81" s="56">
-        <v>8.8138680029740293</v>
+        <v>8.6279637765806605</v>
       </c>
       <c r="U81" s="56">
-        <v>0.94490537348949999</v>
+        <v>0.92275299284843004</v>
       </c>
       <c r="V81" s="56">
         <v>0</v>
       </c>
       <c r="W81" s="56">
-        <v>4.9736373153450204</v>
+        <v>4.8617020535961002</v>
       </c>
       <c r="X81" s="55">
-        <v>3.8402306876290102</v>
+        <v>3.7662617229845599</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
@@ -7322,37 +7322,37 @@
         <v>77030.621345875406</v>
       </c>
       <c r="N82" s="55">
-        <v>9.8546667914125994</v>
+        <v>9.8120843950366208</v>
       </c>
       <c r="O82" s="56">
-        <v>2.1420341522038999</v>
+        <v>2.1336674437692702</v>
       </c>
       <c r="P82" s="56">
-        <v>6.8539583841300003E-2</v>
+        <v>6.8234130957600003E-2</v>
       </c>
       <c r="Q82" s="56">
-        <v>6.2272164984509999E-2</v>
+        <v>6.1982340566040003E-2</v>
       </c>
       <c r="R82" s="56">
-        <v>0.11387718637859</v>
+        <v>0.11338181876412</v>
       </c>
       <c r="S82" s="55">
-        <v>2.02815696582531</v>
+        <v>2.0202856250051502</v>
       </c>
       <c r="T82" s="56">
-        <v>4.3880782277664903</v>
+        <v>4.3640298174335204</v>
       </c>
       <c r="U82" s="56">
-        <v>7.0505997109160001E-2</v>
+        <v>7.0194630499299998E-2</v>
       </c>
       <c r="V82" s="56">
-        <v>7.6044895337360002E-2</v>
+        <v>7.5671084657960005E-2</v>
       </c>
       <c r="W82" s="56">
-        <v>0.12079556243011</v>
+        <v>0.12009839363138999</v>
       </c>
       <c r="X82" s="55">
-        <v>4.2672826653363796</v>
+        <v>4.2439314238021204</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7394,37 +7394,37 @@
         <v>2523368.0937349498</v>
       </c>
       <c r="N83" s="60">
-        <v>17.0169760088549</v>
+        <v>17.0005337013489</v>
       </c>
       <c r="O83" s="61">
-        <v>7.4544901652984699</v>
+        <v>7.4449719327904198</v>
       </c>
       <c r="P83" s="61">
-        <v>1.4320551991658399</v>
+        <v>1.43092542031993</v>
       </c>
       <c r="Q83" s="61">
         <v>0</v>
       </c>
       <c r="R83" s="61">
-        <v>4.1964423372806996</v>
+        <v>4.1906596596205299</v>
       </c>
       <c r="S83" s="60">
-        <v>3.2580478280177898</v>
+        <v>3.2543122731699001</v>
       </c>
       <c r="T83" s="61">
-        <v>7.5003608236804098</v>
+        <v>7.4942145137722296</v>
       </c>
       <c r="U83" s="61">
-        <v>1.4655510785158401</v>
+        <v>1.4637667691835199</v>
       </c>
       <c r="V83" s="61">
         <v>0</v>
       </c>
       <c r="W83" s="61">
-        <v>4.1924949159917704</v>
+        <v>4.1880027524587797</v>
       </c>
       <c r="X83" s="60">
-        <v>3.3078659076886399</v>
+        <v>3.3062117613134498</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
@@ -7466,37 +7466,37 @@
         <v>7839.0899770331498</v>
       </c>
       <c r="N84" s="55">
-        <v>3.9744640092243402</v>
+        <v>3.92860159122869</v>
       </c>
       <c r="O84" s="56">
-        <v>0.37316418183081002</v>
+        <v>0.37028851258404999</v>
       </c>
       <c r="P84" s="56">
-        <v>3.3116082637180001E-2</v>
+        <v>3.2854698795290002E-2</v>
       </c>
       <c r="Q84" s="56">
-        <v>3.6977966856180003E-2</v>
+        <v>3.668982509562E-2</v>
       </c>
       <c r="R84" s="56">
-        <v>7.1135681654179994E-2</v>
+        <v>7.0588319960990006E-2</v>
       </c>
       <c r="S84" s="55">
-        <v>0.30202850017664001</v>
+        <v>0.29970019262306002</v>
       </c>
       <c r="T84" s="56">
-        <v>2.0867667028288999</v>
+        <v>2.0710824846919098</v>
       </c>
       <c r="U84" s="56">
-        <v>2.7536280136410001E-2</v>
+        <v>2.7327632398400001E-2</v>
       </c>
       <c r="V84" s="56">
-        <v>3.2592317154759999E-2</v>
+        <v>3.2306555620769999E-2</v>
       </c>
       <c r="W84" s="56">
-        <v>8.1254747775139996E-2</v>
+        <v>8.0382385607680004E-2</v>
       </c>
       <c r="X84" s="55">
-        <v>2.0055119550537599</v>
+        <v>1.9907000990842301</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
@@ -7610,37 +7610,37 @@
         <v>95058.609647245394</v>
       </c>
       <c r="N86" s="55">
-        <v>11.0303336711551</v>
+        <v>11.0044595253054</v>
       </c>
       <c r="O86" s="56">
-        <v>1.7290733898177999</v>
+        <v>1.72523694256028</v>
       </c>
       <c r="P86" s="56">
-        <v>5.0557317494979999E-2</v>
+        <v>5.0394584405550003E-2</v>
       </c>
       <c r="Q86" s="56">
-        <v>4.0932443612719999E-2</v>
+        <v>4.078086265447E-2</v>
       </c>
       <c r="R86" s="56">
-        <v>7.2781719795820002E-2</v>
+        <v>7.2559088178049999E-2</v>
       </c>
       <c r="S86" s="55">
-        <v>1.6562916700219901</v>
+        <v>1.65267785438224</v>
       </c>
       <c r="T86" s="56">
-        <v>6.0311396245743802</v>
+        <v>6.0101760578725898</v>
       </c>
       <c r="U86" s="56">
-        <v>4.9580177472630001E-2</v>
+        <v>4.9436002339250003E-2</v>
       </c>
       <c r="V86" s="56">
-        <v>5.3836815975110003E-2</v>
+        <v>5.3648939419749998E-2</v>
       </c>
       <c r="W86" s="56">
-        <v>0.10105422712577999</v>
+        <v>0.10066279819484</v>
       </c>
       <c r="X86" s="55">
-        <v>5.9300853974485896</v>
+        <v>5.9095132596777402</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
@@ -7682,37 +7682,37 @@
         <v>239268.42166730401</v>
       </c>
       <c r="N87" s="55">
-        <v>13.4417537138181</v>
+        <v>13.289169951877801</v>
       </c>
       <c r="O87" s="56">
-        <v>2.7220131118359299</v>
+        <v>2.68762363508313</v>
       </c>
       <c r="P87" s="56">
-        <v>0.54787390015479998</v>
+        <v>0.54150653758866996</v>
       </c>
       <c r="Q87" s="56">
         <v>0</v>
       </c>
       <c r="R87" s="56">
-        <v>1.7686941148948301</v>
+        <v>1.74534749775095</v>
       </c>
       <c r="S87" s="55">
-        <v>0.95331899694110001</v>
+        <v>0.94227613733217996</v>
       </c>
       <c r="T87" s="56">
-        <v>6.7446889542832897</v>
+        <v>6.6775075085213498</v>
       </c>
       <c r="U87" s="56">
-        <v>0.52223995841627002</v>
+        <v>0.51500210661659995</v>
       </c>
       <c r="V87" s="56">
         <v>0</v>
       </c>
       <c r="W87" s="56">
-        <v>3.1008170685671401</v>
+        <v>3.0636179302944999</v>
       </c>
       <c r="X87" s="55">
-        <v>3.6438718857161501</v>
+        <v>3.6138895782268601</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.35">
@@ -7754,37 +7754,37 @@
         <v>42949.500934081603</v>
       </c>
       <c r="N88" s="55">
-        <v>20.7214075237972</v>
+        <v>20.720103143747501</v>
       </c>
       <c r="O88" s="56">
-        <v>5.2854917168970896</v>
+        <v>5.2853378151694699</v>
       </c>
       <c r="P88" s="56">
-        <v>9.0056708136819999E-2</v>
+        <v>9.0122840756320002E-2</v>
       </c>
       <c r="Q88" s="56">
-        <v>0.14157500500485001</v>
+        <v>0.14163877395005001</v>
       </c>
       <c r="R88" s="56">
-        <v>0.25615078418656001</v>
+        <v>0.25621005509897998</v>
       </c>
       <c r="S88" s="55">
-        <v>5.0293409327105403</v>
+        <v>5.0291277600704998</v>
       </c>
       <c r="T88" s="56">
-        <v>9.0644590682500592</v>
+        <v>9.0639400750783707</v>
       </c>
       <c r="U88" s="56">
-        <v>9.8109452361289998E-2</v>
+        <v>9.8113678733029994E-2</v>
       </c>
       <c r="V88" s="56">
-        <v>0.1211014150714</v>
+        <v>0.12110342609852</v>
       </c>
       <c r="W88" s="56">
-        <v>0.16755806959316999</v>
+        <v>0.16755690516735999</v>
       </c>
       <c r="X88" s="55">
-        <v>8.8969009986568892</v>
+        <v>8.8963831699110099</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
@@ -7826,37 +7826,37 @@
         <v>956767.75482942699</v>
       </c>
       <c r="N89" s="55">
-        <v>16.005940257752901</v>
+        <v>15.997266902479</v>
       </c>
       <c r="O89" s="56">
-        <v>4.1513479731147997</v>
+        <v>4.1491116841309701</v>
       </c>
       <c r="P89" s="56">
-        <v>0.64070475386278003</v>
+        <v>0.64028944442313995</v>
       </c>
       <c r="Q89" s="56">
         <v>0</v>
       </c>
       <c r="R89" s="56">
-        <v>2.1020265597047101</v>
+        <v>2.1007959545168302</v>
       </c>
       <c r="S89" s="55">
-        <v>2.0493214134100901</v>
+        <v>2.0483157296141399</v>
       </c>
       <c r="T89" s="56">
-        <v>7.0167940260001398</v>
+        <v>7.0126936461655101</v>
       </c>
       <c r="U89" s="56">
-        <v>0.77344254360942</v>
+        <v>0.77286099986748003</v>
       </c>
       <c r="V89" s="56">
         <v>0</v>
       </c>
       <c r="W89" s="56">
-        <v>3.14824256378221</v>
+        <v>3.1457009925807302</v>
       </c>
       <c r="X89" s="55">
-        <v>3.86855146221794</v>
+        <v>3.8669926535847901</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7898,37 +7898,37 @@
         <v>1478786.99790349</v>
       </c>
       <c r="N90" s="60">
-        <v>18.845008358538799</v>
+        <v>18.824578508974501</v>
       </c>
       <c r="O90" s="61">
-        <v>10.6026531194347</v>
+        <v>10.5904362420673</v>
       </c>
       <c r="P90" s="61">
-        <v>2.1577256904295901</v>
+        <v>2.1562312353331201</v>
       </c>
       <c r="Q90" s="61">
-        <v>2.6292796690000001E-5</v>
+        <v>2.6154186639999998E-5</v>
       </c>
       <c r="R90" s="61">
-        <v>6.0526621605383601</v>
+        <v>6.0450423730656402</v>
       </c>
       <c r="S90" s="60">
-        <v>4.5499909588963501</v>
+        <v>4.5453938690016704</v>
       </c>
       <c r="T90" s="61">
-        <v>8.2244605409648806</v>
+        <v>8.2145662198175309</v>
       </c>
       <c r="U90" s="61">
-        <v>2.18598429391204</v>
+        <v>2.1838888825834002</v>
       </c>
       <c r="V90" s="61">
-        <v>8.5305474171099996E-7</v>
+        <v>8.4855761815500005E-7</v>
       </c>
       <c r="W90" s="61">
-        <v>5.4383831091343504</v>
+        <v>5.4324716085843301</v>
       </c>
       <c r="X90" s="60">
-        <v>2.7860774318305301</v>
+        <v>2.7820946112331999</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.35">
@@ -7970,37 +7970,37 @@
         <v>21034.403540349402</v>
       </c>
       <c r="N91" s="55">
-        <v>7.3276246124952804</v>
+        <v>7.27728234306388</v>
       </c>
       <c r="O91" s="56">
-        <v>0.76778741739782996</v>
+        <v>0.76340457716915999</v>
       </c>
       <c r="P91" s="56">
-        <v>4.0601365463430003E-2</v>
+        <v>4.0387686654669998E-2</v>
       </c>
       <c r="Q91" s="56">
-        <v>5.685724099825E-2</v>
+        <v>5.6549819946050003E-2</v>
       </c>
       <c r="R91" s="56">
-        <v>0.10368855812347</v>
+        <v>0.10312065742531</v>
       </c>
       <c r="S91" s="55">
-        <v>0.66409885927435996</v>
+        <v>0.66028391974385003</v>
       </c>
       <c r="T91" s="56">
-        <v>3.5414278955534702</v>
+        <v>3.52251720336259</v>
       </c>
       <c r="U91" s="56">
-        <v>3.010942136036E-2</v>
+        <v>2.9959335326920002E-2</v>
       </c>
       <c r="V91" s="56">
-        <v>6.4219668797590002E-2</v>
+        <v>6.3874048189349997E-2</v>
       </c>
       <c r="W91" s="56">
-        <v>0.12748616513026001</v>
+        <v>0.12668014805374</v>
       </c>
       <c r="X91" s="55">
-        <v>3.4139417304232098</v>
+        <v>3.3958370553088502</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.35">
@@ -8042,37 +8042,37 @@
         <v>9004.7237173643898</v>
       </c>
       <c r="N92" s="55">
-        <v>6.4693835939235003</v>
+        <v>6.4686329966002196</v>
       </c>
       <c r="O92" s="56">
-        <v>0.64079810285893002</v>
+        <v>0.64119910381300005</v>
       </c>
       <c r="P92" s="56">
-        <v>0.16846727682137</v>
+        <v>0.16847263820151001</v>
       </c>
       <c r="Q92" s="56">
         <v>0</v>
       </c>
       <c r="R92" s="56">
-        <v>0.46344204697379998</v>
+        <v>0.46355760378677002</v>
       </c>
       <c r="S92" s="55">
-        <v>0.17735605588511999</v>
+        <v>0.17764150002623</v>
       </c>
       <c r="T92" s="56">
-        <v>2.95586393404067</v>
+        <v>2.9552387905390098</v>
       </c>
       <c r="U92" s="56">
-        <v>0.47583956647164999</v>
+        <v>0.47588887411934</v>
       </c>
       <c r="V92" s="56">
         <v>0</v>
       </c>
       <c r="W92" s="56">
-        <v>1.21673487893842</v>
+        <v>1.21667284800056</v>
       </c>
       <c r="X92" s="55">
-        <v>1.73912905510226</v>
+        <v>1.7385659425384501</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
@@ -8114,37 +8114,37 @@
         <v>795.93663918671996</v>
       </c>
       <c r="N93" s="55">
-        <v>13.863039027941101</v>
+        <v>13.797041525702999</v>
       </c>
       <c r="O93" s="56">
-        <v>6.55162374363747</v>
+        <v>6.5193169760474596</v>
       </c>
       <c r="P93" s="56">
         <v>0</v>
       </c>
       <c r="Q93" s="56">
-        <v>0.12316574889267</v>
+        <v>0.12244266681179</v>
       </c>
       <c r="R93" s="56">
-        <v>0.45695771203426</v>
+        <v>0.45453262702574998</v>
       </c>
       <c r="S93" s="55">
-        <v>6.09466603160321</v>
+        <v>6.0647843490217097</v>
       </c>
       <c r="T93" s="56">
-        <v>4.5667809856470898</v>
+        <v>4.5447535385925901</v>
       </c>
       <c r="U93" s="56">
         <v>0</v>
       </c>
       <c r="V93" s="56">
-        <v>6.6332629466630003E-2</v>
+        <v>6.6032161678440005E-2</v>
       </c>
       <c r="W93" s="56">
-        <v>0.16465868980680001</v>
+        <v>0.16387406575784</v>
       </c>
       <c r="X93" s="55">
-        <v>4.4021222958403001</v>
+        <v>4.3808794728347502</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.35">
@@ -8186,37 +8186,37 @@
         <v>34029.151711217499</v>
       </c>
       <c r="N94" s="55">
-        <v>24.5565505116057</v>
+        <v>24.492999791146602</v>
       </c>
       <c r="O94" s="56">
-        <v>43.4048085571225</v>
+        <v>43.2218798136308</v>
       </c>
       <c r="P94" s="56">
-        <v>9.0898978315099993E-3</v>
+        <v>9.0760311171800001E-3</v>
       </c>
       <c r="Q94" s="56">
         <v>0</v>
       </c>
       <c r="R94" s="56">
-        <v>30.107015555701299</v>
+        <v>29.978067695667299</v>
       </c>
       <c r="S94" s="55">
-        <v>13.2977930014212</v>
+        <v>13.2438121179635</v>
       </c>
       <c r="T94" s="56">
-        <v>9.3511313314968891</v>
+        <v>9.3222506675273102</v>
       </c>
       <c r="U94" s="56">
-        <v>4.1799682216600003E-3</v>
+        <v>4.1664437158600003E-3</v>
       </c>
       <c r="V94" s="56">
         <v>0</v>
       </c>
       <c r="W94" s="56">
-        <v>4.4264765055791004</v>
+        <v>4.4133226223386597</v>
       </c>
       <c r="X94" s="55">
-        <v>4.9246548259178002</v>
+        <v>4.9089280451886497</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.35">
@@ -8258,37 +8258,37 @@
         <v>5634.6855966949797</v>
       </c>
       <c r="N95" s="55">
-        <v>5.09632934279061</v>
+        <v>5.0666418746933903</v>
       </c>
       <c r="O95" s="56">
-        <v>0.51648824654087</v>
+        <v>0.51511380462379996</v>
       </c>
       <c r="P95" s="56">
-        <v>8.7186356736850004E-2</v>
+        <v>8.6850618467390006E-2</v>
       </c>
       <c r="Q95" s="56">
-        <v>0.10016778472724</v>
+        <v>9.9827264907470001E-2</v>
       </c>
       <c r="R95" s="56">
-        <v>0.14429551908440999</v>
+        <v>0.14387139644274999</v>
       </c>
       <c r="S95" s="55">
-        <v>0.37219272745644999</v>
+        <v>0.37124240818104998</v>
       </c>
       <c r="T95" s="56">
-        <v>2.0019793040510199</v>
+        <v>1.9471609769046301</v>
       </c>
       <c r="U95" s="56">
-        <v>2.2647196760300001E-2</v>
+        <v>2.2341597938949999E-2</v>
       </c>
       <c r="V95" s="56">
-        <v>9.7548219647260001E-2</v>
+        <v>9.7060560960249995E-2</v>
       </c>
       <c r="W95" s="56">
-        <v>0.14182566281708001</v>
+        <v>0.14022293719133</v>
       </c>
       <c r="X95" s="55">
-        <v>1.8601536412339399</v>
+        <v>1.8069380397132999</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8330,37 +8330,37 @@
         <v>12512.4443017711</v>
       </c>
       <c r="N96" s="60">
-        <v>14.690692360819201</v>
+        <v>14.5616636010456</v>
       </c>
       <c r="O96" s="61">
-        <v>2.3773254965961299</v>
+        <v>2.35858206467742</v>
       </c>
       <c r="P96" s="61">
-        <v>0.80575298781787996</v>
+        <v>0.79826314470467996</v>
       </c>
       <c r="Q96" s="61">
         <v>0</v>
       </c>
       <c r="R96" s="61">
-        <v>1.38363895915113</v>
+        <v>1.3721828498937401</v>
       </c>
       <c r="S96" s="60">
-        <v>0.99368653744501001</v>
+        <v>0.98639921478367998</v>
       </c>
       <c r="T96" s="61">
-        <v>5.8085025124138303</v>
+        <v>5.7555042398720904</v>
       </c>
       <c r="U96" s="61">
-        <v>1.0021405953557501</v>
+        <v>0.99222655985459995</v>
       </c>
       <c r="V96" s="61">
         <v>0</v>
       </c>
       <c r="W96" s="61">
-        <v>3.5407695644483099</v>
+        <v>3.5061758352606498</v>
       </c>
       <c r="X96" s="60">
-        <v>2.2677329479655199</v>
+        <v>2.2493284046114499</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.35">
@@ -8402,37 +8402,37 @@
         <v>53241.185577758602</v>
       </c>
       <c r="N97" s="55">
-        <v>7.8158408984208503</v>
+        <v>7.7857025758891698</v>
       </c>
       <c r="O97" s="56">
-        <v>0.69604591149766004</v>
+        <v>0.69362186367053003</v>
       </c>
       <c r="P97" s="56">
-        <v>3.3445826457480003E-2</v>
+        <v>3.3271002463920001E-2</v>
       </c>
       <c r="Q97" s="56">
-        <v>4.1376324879070003E-2</v>
+        <v>4.1160034818539998E-2</v>
       </c>
       <c r="R97" s="56">
-        <v>7.1941155119679995E-2</v>
+        <v>7.1631488065150004E-2</v>
       </c>
       <c r="S97" s="55">
-        <v>0.62410475637799001</v>
+        <v>0.62199037560537995</v>
       </c>
       <c r="T97" s="56">
-        <v>4.2237597680193204</v>
+        <v>4.2009167424255098</v>
       </c>
       <c r="U97" s="56">
-        <v>2.3920975742820001E-2</v>
+        <v>2.3796861880010001E-2</v>
       </c>
       <c r="V97" s="56">
-        <v>4.646518089091E-2</v>
+        <v>4.6211420772039997E-2</v>
       </c>
       <c r="W97" s="56">
-        <v>0.10981757674129</v>
+        <v>0.10916804638794</v>
       </c>
       <c r="X97" s="55">
-        <v>4.1139421912780296</v>
+        <v>4.0917486960375697</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.35">
@@ -8474,37 +8474,37 @@
         <v>75961.094261720806</v>
       </c>
       <c r="N98" s="55">
-        <v>10.2520165570141</v>
+        <v>9.5940845607615799</v>
       </c>
       <c r="O98" s="56">
-        <v>0.85699778044802999</v>
+        <v>0.80331991274917003</v>
       </c>
       <c r="P98" s="56">
-        <v>0.12120311194378</v>
+        <v>0.11215027258786001</v>
       </c>
       <c r="Q98" s="56">
         <v>0</v>
       </c>
       <c r="R98" s="56">
-        <v>0.38020323504770998</v>
+        <v>0.35709014557520002</v>
       </c>
       <c r="S98" s="55">
-        <v>0.47679454540032001</v>
+        <v>0.44622976717397</v>
       </c>
       <c r="T98" s="56">
-        <v>5.3767039562416397</v>
+        <v>5.0510462259224704</v>
       </c>
       <c r="U98" s="56">
-        <v>0.41012610938624</v>
+        <v>0.37956848017895001</v>
       </c>
       <c r="V98" s="56">
         <v>0</v>
       </c>
       <c r="W98" s="56">
-        <v>1.30848309490601</v>
+        <v>1.2351088424386001</v>
       </c>
       <c r="X98" s="55">
-        <v>4.0682208613356297</v>
+        <v>3.8159373834838801</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8546,37 +8546,37 @@
         <v>19934.1416918949</v>
       </c>
       <c r="N99" s="60">
-        <v>7.7127299458746803</v>
+        <v>7.6346446280066003</v>
       </c>
       <c r="O99" s="61">
-        <v>0.48989978614128998</v>
+        <v>0.48567005011538</v>
       </c>
       <c r="P99" s="61">
-        <v>4.2940753526970001E-2</v>
+        <v>4.2597247374509997E-2</v>
       </c>
       <c r="Q99" s="61">
-        <v>3.4197720810100001E-3</v>
+        <v>3.3821635590400002E-3</v>
       </c>
       <c r="R99" s="61">
-        <v>0.24468490719805999</v>
+        <v>0.24272602928827999</v>
       </c>
       <c r="S99" s="60">
-        <v>0.24521487894322999</v>
+        <v>0.24294402082710001</v>
       </c>
       <c r="T99" s="61">
-        <v>4.2030855152421696</v>
+        <v>4.1697669004494697</v>
       </c>
       <c r="U99" s="61">
-        <v>3.6000209941900001E-2</v>
+        <v>3.5714763342520002E-2</v>
       </c>
       <c r="V99" s="61">
-        <v>2.2252597740399999E-3</v>
+        <v>2.16127453037E-3</v>
       </c>
       <c r="W99" s="61">
-        <v>0.79199774812759005</v>
+        <v>0.78550919645136996</v>
       </c>
       <c r="X99" s="60">
-        <v>3.4110877671145801</v>
+        <v>3.3842577039981099</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.35">

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab26.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM) (mise à jour 01/09/2021).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -9007,7 +9007,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
